--- a/Παραδοτέο 4/domain_classes.xlsx
+++ b/Παραδοτέο 4/domain_classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτέο 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE0F32A-2DB2-7245-B838-DB9433C0A877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B049312-F812-CE45-9552-1BBB72F476A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="-26200" windowWidth="41640" windowHeight="23840" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
+    <workbookView xWindow="140" yWindow="-27040" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain Classes" sheetId="2" r:id="rId1"/>
@@ -1628,7 +1628,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1698,6 +1698,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1775,7 +1781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1862,9 +1868,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1905,6 +1908,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2244,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
   <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2280,26 +2292,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2341,7 +2353,7 @@
       <c r="N2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="39" t="s">
         <v>376</v>
       </c>
       <c r="P2" s="3"/>
@@ -2358,55 +2370,55 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" s="35" customFormat="1" ht="126" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:29" s="34" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="32" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="44" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -2466,7 +2478,7 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="45" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2524,7 +2536,7 @@
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="45" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2580,7 +2592,7 @@
       <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="45" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2632,7 +2644,7 @@
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="45" t="s">
         <v>83</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2834,23 +2846,23 @@
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
       <c r="P14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2869,7 +2881,7 @@
       <c r="A15" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -2878,10 +2890,10 @@
       <c r="D15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="38" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -2890,7 +2902,7 @@
       <c r="H15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="37" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -2905,7 +2917,7 @@
       <c r="M15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="36" t="s">
+      <c r="N15" s="35" t="s">
         <v>47</v>
       </c>
       <c r="O15" s="11" t="s">
@@ -3371,10 +3383,10 @@
       <c r="E28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="35" t="s">
         <v>55</v>
       </c>
       <c r="H28" s="11" t="s">
@@ -3676,20 +3688,20 @@
       <c r="AC35" s="3"/>
     </row>
     <row r="36" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
       <c r="M36" s="24"/>
       <c r="N36" s="24"/>
       <c r="P36" s="3"/>
@@ -3761,10 +3773,10 @@
       <c r="A38" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="30" t="s">
         <v>417</v>
       </c>
       <c r="D38" s="27" t="s">
@@ -3779,7 +3791,7 @@
       <c r="G38" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="31" t="s">
         <v>422</v>
       </c>
       <c r="I38" s="27" t="s">
@@ -4227,16 +4239,16 @@
     </row>
     <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>

--- a/Παραδοτέο 4/domain_classes.xlsx
+++ b/Παραδοτέο 4/domain_classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτέο 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B049312-F812-CE45-9552-1BBB72F476A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB10D3F-9535-F54D-83A6-27661CB317FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="-27040" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
+    <workbookView xWindow="15800" yWindow="-26040" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain Classes" sheetId="2" r:id="rId1"/>
@@ -461,9 +461,6 @@
     <t>sortListingsByScore()</t>
   </si>
   <si>
-    <t>displaySearchResults(listings,markers,score)</t>
-  </si>
-  <si>
     <t>onEvaluateExperienceClicked()</t>
   </si>
   <si>
@@ -1521,12 +1518,15 @@
 private Map&lt;Integer, List&lt;User&gt;&gt; listingParticipants;
 private Set&lt;Pair&lt;Integer, Integer&gt;&gt; evaluations;</t>
   </si>
+  <si>
+    <t>Marker</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1627,8 +1627,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1698,6 +1712,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1777,11 +1796,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1910,18 +1930,34 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2256,8 +2292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
   <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="60" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2293,7 +2329,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -2354,7 +2390,7 @@
         <v>26</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P2" s="3"/>
       <c r="R2" s="3"/>
@@ -2372,49 +2408,49 @@
     </row>
     <row r="3" spans="1:29" s="34" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="I3" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="K3" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="L3" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="M3" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="N3" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="O3" s="32" t="s">
         <v>390</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2424,44 +2460,44 @@
       <c r="B4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="48" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
@@ -2484,42 +2520,42 @@
       <c r="B5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="47" t="s">
         <v>122</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
@@ -2542,40 +2578,40 @@
       <c r="B6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="47" t="s">
         <v>127</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
@@ -2598,35 +2634,35 @@
       <c r="B7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="47" t="s">
         <v>128</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="3"/>
@@ -2650,13 +2686,13 @@
       <c r="B8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="49" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2686,7 +2722,7 @@
       <c r="B9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="47" t="s">
         <v>131</v>
       </c>
       <c r="D9" s="5"/>
@@ -2720,7 +2756,7 @@
       <c r="B10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="47" t="s">
         <v>134</v>
       </c>
       <c r="D10" s="5"/>
@@ -2754,7 +2790,7 @@
       <c r="B11" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="47" t="s">
         <v>140</v>
       </c>
       <c r="D11" s="5"/>
@@ -2787,7 +2823,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2847,7 +2883,7 @@
     </row>
     <row r="14" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -2923,55 +2959,58 @@
       <c r="O15" s="11" t="s">
         <v>48</v>
       </c>
+      <c r="P15" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:29" s="26" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="D16" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="E16" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="F16" s="28" t="s">
         <v>396</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>397</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="J16" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="K16" s="27" t="s">
         <v>400</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>401</v>
       </c>
       <c r="L16" s="29"/>
       <c r="M16" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N16" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="N16" s="27" t="s">
+      <c r="O16" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="O16" s="27" t="s">
-        <v>404</v>
-      </c>
     </row>
     <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="47" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2993,28 +3032,28 @@
         <v>90</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -3025,7 +3064,7 @@
         <v>71</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>92</v>
@@ -3037,28 +3076,28 @@
         <v>96</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -3069,7 +3108,7 @@
         <v>65</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>124</v>
@@ -3081,25 +3120,25 @@
         <v>101</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O19" s="8"/>
       <c r="Z19" s="3"/>
@@ -3111,10 +3150,10 @@
         <v>114</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -3123,23 +3162,23 @@
         <v>106</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O20" s="8"/>
       <c r="Z20" s="3"/>
@@ -3152,7 +3191,7 @@
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -3161,17 +3200,17 @@
         <v>136</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O21" s="8"/>
       <c r="Z21" s="3"/>
@@ -3179,7 +3218,7 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="47" t="s">
         <v>139</v>
       </c>
       <c r="B22" s="8"/>
@@ -3191,17 +3230,17 @@
         <v>137</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O22" s="8"/>
       <c r="Z22" s="3"/>
@@ -3210,7 +3249,7 @@
     </row>
     <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3218,20 +3257,20 @@
       <c r="E23" s="8"/>
       <c r="F23" s="10"/>
       <c r="G23" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O23" s="8"/>
       <c r="Z23" s="3"/>
@@ -3240,7 +3279,7 @@
     </row>
     <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3248,10 +3287,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="10"/>
       <c r="G24" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -3266,7 +3305,7 @@
     </row>
     <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3274,10 +3313,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -3301,7 +3340,7 @@
     </row>
     <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3309,10 +3348,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -3336,7 +3375,7 @@
     </row>
     <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3345,7 +3384,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -3419,66 +3458,66 @@
     </row>
     <row r="29" spans="1:29" s="26" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="C29" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="D29" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="E29" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="F29" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="G29" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="H29" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="I29" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="J29" s="27" t="s">
         <v>413</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -3501,27 +3540,27 @@
     </row>
     <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="3"/>
@@ -3545,25 +3584,25 @@
     </row>
     <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="3"/>
@@ -3587,21 +3626,21 @@
     </row>
     <row r="33" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="3"/>
@@ -3625,19 +3664,19 @@
     </row>
     <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="3"/>
@@ -3689,7 +3728,7 @@
     </row>
     <row r="36" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -3741,7 +3780,7 @@
         <v>27</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>31</v>
@@ -3771,40 +3810,40 @@
     </row>
     <row r="38" spans="1:29" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="B38" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="C38" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="D38" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="E38" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="F38" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="G38" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="H38" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="I38" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="J38" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="K38" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="L38" s="27" t="s">
         <v>425</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>426</v>
       </c>
       <c r="P38" s="3"/>
       <c r="R38" s="3"/>
@@ -3834,7 +3873,7 @@
         <v>74</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>74</v>
@@ -3843,19 +3882,19 @@
         <v>119</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P39" s="3"/>
       <c r="R39" s="3"/>
@@ -3882,31 +3921,31 @@
         <v>91</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>74</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P40" s="3"/>
       <c r="R40" s="3"/>
@@ -3924,7 +3963,7 @@
     </row>
     <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>70</v>
@@ -3933,22 +3972,22 @@
         <v>94</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
         <v>125</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>74</v>
@@ -3956,7 +3995,7 @@
     </row>
     <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>74</v>
@@ -3966,27 +4005,27 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="47" t="s">
         <v>126</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>75</v>
@@ -3999,26 +4038,26 @@
         <v>74</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="47" t="s">
         <v>129</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>35</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>77</v>
@@ -4034,17 +4073,17 @@
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>78</v>
@@ -4055,12 +4094,12 @@
       <c r="D45" s="8"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="47" t="s">
         <v>135</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -4080,12 +4119,12 @@
       <c r="D46" s="8"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="47" t="s">
         <v>138</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -4094,7 +4133,7 @@
     </row>
     <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>82</v>
@@ -4105,12 +4144,10 @@
       <c r="D47" s="8"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>141</v>
-      </c>
+      <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -4119,7 +4156,7 @@
     </row>
     <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="17" t="s">
@@ -4128,12 +4165,12 @@
       <c r="D48" s="8"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>188</v>
+      <c r="G48" s="47" t="s">
+        <v>187</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -4151,8 +4188,8 @@
       <c r="D49" s="8"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="5" t="s">
-        <v>191</v>
+      <c r="G49" s="47" t="s">
+        <v>190</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="10"/>
@@ -4163,7 +4200,7 @@
     </row>
     <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="17"/>
@@ -4171,7 +4208,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="10"/>
@@ -4182,7 +4219,7 @@
     </row>
     <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="17"/>
@@ -4190,7 +4227,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -4201,7 +4238,7 @@
     </row>
     <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="17"/>
@@ -4209,7 +4246,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -4226,7 +4263,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="5"/>
@@ -4240,7 +4277,7 @@
     <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
@@ -4318,28 +4355,28 @@
     </row>
     <row r="58" spans="1:29" ht="80" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="B58" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="C58" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="D58" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="E58" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="F58" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="G58" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="G58" s="27" t="s">
+      <c r="H58" s="27" t="s">
         <v>434</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>435</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -4373,19 +4410,19 @@
         <v>118</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -4417,17 +4454,17 @@
         <v>120</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3"/>
       <c r="O60" s="3"/>
@@ -4453,14 +4490,14 @@
         <v>121</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="3"/>
@@ -4486,11 +4523,11 @@
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -4517,7 +4554,7 @@
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -4532,7 +4569,7 @@
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -4587,7 +4624,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -4615,10 +4652,10 @@
     </row>
     <row r="67" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4648,10 +4685,10 @@
     </row>
     <row r="68" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -4682,10 +4719,10 @@
     </row>
     <row r="69" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4717,7 +4754,7 @@
     <row r="70" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -4749,7 +4786,7 @@
     <row r="71" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -4781,7 +4818,7 @@
     <row r="72" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -4813,7 +4850,7 @@
     <row r="73" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -4845,7 +4882,7 @@
     <row r="74" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4935,10 +4972,10 @@
       <c r="AC76" s="3"/>
     </row>
     <row r="77" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="3"/>
+      <c r="B77" s="50"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4966,11 +5003,11 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" ht="48" x14ac:dyDescent="0.2">
-      <c r="A78" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="B78" s="3"/>
+    <row r="78" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="B78" s="51"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5002,7 +5039,9 @@
       <c r="A79" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79" s="5" t="s">
+        <v>259</v>
+      </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5034,7 +5073,9 @@
       <c r="A80" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="3"/>
+      <c r="B80" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5067,7 +5108,9 @@
       <c r="A81" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="3"/>
+      <c r="B81" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5100,7 +5143,9 @@
       <c r="A82" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="3"/>
+      <c r="B82" s="5" t="s">
+        <v>273</v>
+      </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5133,7 +5178,9 @@
       <c r="A83" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B83" s="3"/>
+      <c r="B83" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5166,7 +5213,9 @@
       <c r="A84" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="3"/>
+      <c r="B84" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5199,7 +5248,9 @@
       <c r="A85" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="3"/>
+      <c r="B85" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5230,9 +5281,11 @@
     </row>
     <row r="86" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B86" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5263,9 +5316,11 @@
     </row>
     <row r="87" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B87" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5296,9 +5351,11 @@
     </row>
     <row r="88" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B88" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5329,9 +5386,11 @@
     </row>
     <row r="89" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B89" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5362,9 +5421,11 @@
     </row>
     <row r="90" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B90" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
       <c r="E90" s="3"/>
@@ -5395,9 +5456,11 @@
     </row>
     <row r="91" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B91" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5428,7 +5491,10 @@
     </row>
     <row r="92" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="I92" s="3"/>
       <c r="O92" s="3"/>
@@ -5449,7 +5515,10 @@
     </row>
     <row r="93" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
@@ -5469,7 +5538,10 @@
     </row>
     <row r="94" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
@@ -5489,127 +5561,63 @@
     </row>
     <row r="95" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="Q95" s="3"/>
     </row>
     <row r="96" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>358</v>
       </c>
       <c r="Q96" s="3"/>
     </row>
     <row r="97" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="Q97" s="3"/>
     </row>
     <row r="98" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A14:O14"/>
     <mergeCell ref="A56:H56"/>
     <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Παραδοτέο 4/domain_classes.xlsx
+++ b/Παραδοτέο 4/domain_classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτέο 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB10D3F-9535-F54D-83A6-27661CB317FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D1002E-5D5F-6B43-BA08-FAE94DFF10A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15800" yWindow="-26040" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="437">
   <si>
     <t>MainScreen</t>
   </si>
@@ -669,9 +669,6 @@
   </si>
   <si>
     <t>selectCommonTimeslot()</t>
-  </si>
-  <si>
-    <t>computeComonAvailability()</t>
   </si>
   <si>
     <t>createInterestEmail()</t>
@@ -1526,7 +1523,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2292,11 +2289,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
   <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="60" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="83" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
@@ -2327,9 +2324,9 @@
     <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="70" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -2346,7 +2343,7 @@
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
     </row>
-    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="30" customHeight="1">
       <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
@@ -2390,7 +2387,7 @@
         <v>26</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P2" s="3"/>
       <c r="R2" s="3"/>
@@ -2406,54 +2403,54 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" s="34" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="34" customFormat="1" ht="126">
       <c r="A3" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="I3" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="K3" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="L3" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="M3" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="N3" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="O3" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="O3" s="32" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:29" ht="35" customHeight="1">
       <c r="A4" s="44" t="s">
         <v>64</v>
       </c>
@@ -2473,31 +2470,31 @@
         <v>188</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
@@ -2513,7 +2510,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="30" customHeight="1">
       <c r="A5" s="45" t="s">
         <v>67</v>
       </c>
@@ -2531,31 +2528,31 @@
         <v>208</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
@@ -2571,7 +2568,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="30" customHeight="1">
       <c r="A6" s="45" t="s">
         <v>76</v>
       </c>
@@ -2590,28 +2587,28 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
@@ -2627,7 +2624,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="30" customHeight="1">
       <c r="A7" s="45" t="s">
         <v>80</v>
       </c>
@@ -2642,27 +2639,27 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="3"/>
@@ -2679,7 +2676,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="30" customHeight="1">
       <c r="A8" s="45" t="s">
         <v>83</v>
       </c>
@@ -2692,7 +2689,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2717,7 +2714,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="30" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>107</v>
@@ -2751,7 +2748,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="30" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>109</v>
@@ -2785,7 +2782,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="30" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>111</v>
@@ -2819,7 +2816,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="30" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -2851,7 +2848,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="84" customHeight="1">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2881,9 +2878,9 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="59" customHeight="1">
       <c r="A14" s="41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -2913,7 +2910,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>3</v>
       </c>
@@ -2960,63 +2957,63 @@
         <v>48</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:29" s="26" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="26" customFormat="1" ht="144">
       <c r="A16" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="D16" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="E16" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="F16" s="28" t="s">
         <v>395</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>396</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="J16" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="K16" s="27" t="s">
         <v>399</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>400</v>
       </c>
       <c r="L16" s="29"/>
       <c r="M16" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="N16" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="N16" s="27" t="s">
+      <c r="O16" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="O16" s="27" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:29" ht="30" customHeight="1">
       <c r="A17" s="47" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="47" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -3046,27 +3043,27 @@
       <c r="L17" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="47" t="s">
         <v>204</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C18" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="47" t="s">
         <v>92</v>
       </c>
       <c r="D18" s="8"/>
@@ -3090,27 +3087,27 @@
       <c r="L18" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="47" t="s">
         <v>205</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="30" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C19" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="47" t="s">
         <v>124</v>
       </c>
       <c r="D19" s="8"/>
@@ -3120,7 +3117,7 @@
         <v>101</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>159</v>
@@ -3132,28 +3129,28 @@
         <v>183</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="M19" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="M19" s="47" t="s">
         <v>206</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O19" s="8"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>216</v>
+        <v>317</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -3162,7 +3159,7 @@
         <v>106</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>182</v>
@@ -3174,33 +3171,31 @@
         <v>184</v>
       </c>
       <c r="L20" s="8"/>
-      <c r="M20" s="8" t="s">
-        <v>211</v>
-      </c>
+      <c r="M20" s="8"/>
       <c r="N20" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O20" s="8"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="30" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>232</v>
+      <c r="C21" s="47" t="s">
+        <v>231</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="47" t="s">
         <v>136</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -3210,14 +3205,14 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O21" s="8"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="30" customHeight="1">
       <c r="A22" s="47" t="s">
         <v>139</v>
       </c>
@@ -3226,11 +3221,11 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="47" t="s">
         <v>137</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -3240,14 +3235,14 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O22" s="8"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="30" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>145</v>
       </c>
@@ -3257,27 +3252,27 @@
       <c r="E23" s="8"/>
       <c r="F23" s="10"/>
       <c r="G23" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O23" s="8"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>178</v>
       </c>
@@ -3287,10 +3282,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="10"/>
       <c r="G24" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -3303,9 +3298,9 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="30" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3313,10 +3308,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -3338,9 +3333,9 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3348,10 +3343,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -3373,9 +3368,9 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="30" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3384,7 +3379,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -3406,7 +3401,7 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="30" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>49</v>
       </c>
@@ -3456,68 +3451,68 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" s="26" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" s="26" customFormat="1" ht="96">
       <c r="A29" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="C29" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="D29" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="E29" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="F29" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="G29" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="H29" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="I29" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="J29" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="J29" s="27" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:29" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -3538,29 +3533,29 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="30" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="3"/>
@@ -3582,27 +3577,27 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="3"/>
@@ -3624,23 +3619,23 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="30" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="3"/>
@@ -3662,21 +3657,21 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="3"/>
@@ -3697,7 +3692,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="66" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3726,9 +3721,9 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="68" customHeight="1">
       <c r="A36" s="43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -3757,7 +3752,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="30" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>0</v>
       </c>
@@ -3780,7 +3775,7 @@
         <v>27</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>31</v>
@@ -3808,42 +3803,42 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" ht="80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="80">
       <c r="A38" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="B38" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="C38" s="30" t="s">
         <v>415</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="D38" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="E38" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="F38" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="G38" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="H38" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="I38" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="J38" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="K38" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="L38" s="27" t="s">
         <v>424</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>425</v>
       </c>
       <c r="P38" s="3"/>
       <c r="R38" s="3"/>
@@ -3859,7 +3854,7 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
@@ -3882,19 +3877,19 @@
         <v>119</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P39" s="3"/>
       <c r="R39" s="3"/>
@@ -3910,7 +3905,7 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="30" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>62</v>
       </c>
@@ -3927,25 +3922,25 @@
         <v>201</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>74</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P40" s="3"/>
       <c r="R40" s="3"/>
@@ -3961,7 +3956,7 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>141</v>
       </c>
@@ -3982,18 +3977,18 @@
         <v>125</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>175</v>
       </c>
@@ -4012,18 +4007,18 @@
         <v>126</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>192</v>
       </c>
@@ -4042,20 +4037,20 @@
         <v>129</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>35</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" s="3" customFormat="1" ht="48">
       <c r="A44" s="5" t="s">
         <v>193</v>
       </c>
@@ -4073,17 +4068,17 @@
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>78</v>
@@ -4099,14 +4094,14 @@
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>74</v>
       </c>
@@ -4124,16 +4119,16 @@
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>82</v>
@@ -4147,16 +4142,16 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47"/>
     </row>
-    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="17" t="s">
@@ -4170,14 +4165,14 @@
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48"/>
     </row>
-    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>61</v>
       </c>
@@ -4198,16 +4193,16 @@
       <c r="L49" s="5"/>
       <c r="M49"/>
     </row>
-    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="17"/>
       <c r="D50" s="8"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="47" t="s">
         <v>191</v>
       </c>
       <c r="H50" s="5"/>
@@ -4217,9 +4212,9 @@
       <c r="L50" s="5"/>
       <c r="M50"/>
     </row>
-    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="17"/>
@@ -4236,9 +4231,9 @@
       <c r="L51" s="5"/>
       <c r="M51"/>
     </row>
-    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="17"/>
@@ -4255,7 +4250,7 @@
       <c r="L52" s="5"/>
       <c r="M52"/>
     </row>
-    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4271,13 +4266,13 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1"/>
+    <row r="56" spans="1:29" ht="45" customHeight="1">
       <c r="A56" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
@@ -4307,7 +4302,7 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="30" customHeight="1">
       <c r="A57" s="18" t="s">
         <v>8</v>
       </c>
@@ -4353,30 +4348,30 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" ht="80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="80">
       <c r="A58" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="B58" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="C58" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="D58" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="E58" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="F58" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="G58" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="G58" s="27" t="s">
+      <c r="H58" s="27" t="s">
         <v>433</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>434</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -4399,7 +4394,7 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="30" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>79</v>
       </c>
@@ -4413,16 +4408,16 @@
         <v>152</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -4445,7 +4440,7 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="30" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>84</v>
       </c>
@@ -4458,13 +4453,13 @@
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I60" s="3"/>
       <c r="O60" s="3"/>
@@ -4483,7 +4478,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="30" customHeight="1">
       <c r="A61" s="5"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
@@ -4494,10 +4489,10 @@
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="3"/>
@@ -4518,7 +4513,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="30" customHeight="1">
       <c r="A62" s="5"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4527,7 +4522,7 @@
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -4549,7 +4544,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="31" customHeight="1">
       <c r="A63" s="5"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4564,7 +4559,7 @@
       <c r="J63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="30" customHeight="1">
       <c r="A64" s="5"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -4593,7 +4588,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="30" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4619,7 +4614,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="30" customHeight="1">
       <c r="A66" s="19" t="s">
         <v>60</v>
       </c>
@@ -4650,9 +4645,9 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="30" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>168</v>
@@ -4683,9 +4678,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="30" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>169</v>
@@ -4717,9 +4712,9 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="30" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>170</v>
@@ -4751,7 +4746,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="30" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="8" t="s">
         <v>171</v>
@@ -4783,7 +4778,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="30" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="8" t="s">
         <v>172</v>
@@ -4815,7 +4810,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="30" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="8" t="s">
         <v>173</v>
@@ -4847,7 +4842,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="30" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
         <v>174</v>
@@ -4879,10 +4874,10 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="30" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4911,7 +4906,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="30" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4941,7 +4936,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="30" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4971,7 +4966,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="30" customHeight="1">
       <c r="A77" s="50" t="s">
         <v>2</v>
       </c>
@@ -5003,9 +4998,9 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="48" customHeight="1">
       <c r="A78" s="51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B78" s="51"/>
       <c r="C78" s="3"/>
@@ -5035,12 +5030,12 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="32" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -5069,12 +5064,12 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="30" customHeight="1">
       <c r="A80" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -5104,12 +5099,12 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" ht="30" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -5139,12 +5134,12 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" ht="30" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -5174,12 +5169,12 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" ht="30" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -5209,12 +5204,12 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" ht="30" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -5244,12 +5239,12 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" ht="30" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -5279,12 +5274,12 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" ht="30" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -5314,12 +5309,12 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="30" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -5349,12 +5344,12 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="30" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -5384,12 +5379,12 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="30" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -5419,12 +5414,12 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="30" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
@@ -5454,12 +5449,12 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="30" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>189</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -5489,12 +5484,12 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" ht="30" customHeight="1">
       <c r="A92" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I92" s="3"/>
       <c r="O92" s="3"/>
@@ -5513,12 +5508,12 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" ht="30" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
@@ -5536,12 +5531,12 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" ht="30" customHeight="1">
       <c r="A94" s="5" t="s">
         <v>203</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
@@ -5559,57 +5554,57 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" ht="30" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" ht="30" customHeight="1">
       <c r="A96" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="30" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="30" customHeight="1">
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:17" ht="30" customHeight="1"/>
+    <row r="100" spans="1:17" ht="30" customHeight="1"/>
+    <row r="101" spans="1:17" ht="30" customHeight="1"/>
+    <row r="102" spans="1:17" ht="30" customHeight="1"/>
+    <row r="103" spans="1:17" ht="30" customHeight="1"/>
+    <row r="104" spans="1:17" ht="30" customHeight="1"/>
+    <row r="105" spans="1:17" ht="30" customHeight="1"/>
+    <row r="106" spans="1:17" ht="30" customHeight="1"/>
+    <row r="107" spans="1:17" ht="30" customHeight="1"/>
+    <row r="108" spans="1:17" ht="30" customHeight="1"/>
+    <row r="109" spans="1:17" ht="30" customHeight="1"/>
+    <row r="110" spans="1:17" ht="30" customHeight="1"/>
+    <row r="111" spans="1:17" ht="30" customHeight="1"/>
+    <row r="112" spans="1:17" ht="30" customHeight="1"/>
+    <row r="113" ht="30" customHeight="1"/>
+    <row r="114" ht="30" customHeight="1"/>
+    <row r="115" ht="30" customHeight="1"/>
+    <row r="116" ht="30" customHeight="1"/>
+    <row r="117" ht="30" customHeight="1"/>
+    <row r="118" ht="30" customHeight="1"/>
+    <row r="119" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:O1"/>

--- a/Παραδοτέο 4/domain_classes.xlsx
+++ b/Παραδοτέο 4/domain_classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτέο 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D1002E-5D5F-6B43-BA08-FAE94DFF10A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C34772-4001-C445-A670-BE97995DE898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15800" yWindow="-26040" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
+    <workbookView xWindow="23760" yWindow="-26960" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain Classes" sheetId="2" r:id="rId1"/>
@@ -845,9 +845,6 @@
     <t>onInterestDeclarationsClicked()</t>
   </si>
   <si>
-    <t>fetchOwnerListings(ownerID)</t>
-  </si>
-  <si>
     <t>getListingsByOwner(ownerID)</t>
   </si>
   <si>
@@ -857,9 +854,6 @@
     <t>getInterestDeclarations(listings)</t>
   </si>
   <si>
-    <t>filterActiveInterests(declarations)</t>
-  </si>
-  <si>
     <t>getUserIdsFromInterests(users)</t>
   </si>
   <si>
@@ -987,9 +981,6 @@
   </si>
   <si>
     <t>markAsAnavailable(listing)</t>
-  </si>
-  <si>
-    <t>deleteListingInterests()</t>
   </si>
   <si>
     <t>cancelContractFinalization()</t>
@@ -1518,12 +1509,21 @@
   <si>
     <t>Marker</t>
   </si>
+  <si>
+    <t>startRentalProcess()</t>
+  </si>
+  <si>
+    <t>displayValidationResult()</t>
+  </si>
+  <si>
+    <t>deleteAssociatedInterests</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1638,8 +1638,15 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1714,12 +1721,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1798,7 +1799,7 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1927,22 +1928,10 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1950,6 +1939,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2289,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
   <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="83" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2326,7 +2324,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="70" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -2344,7 +2342,7 @@
       <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:29" ht="30" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2387,7 +2385,7 @@
         <v>26</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P2" s="3"/>
       <c r="R2" s="3"/>
@@ -2405,59 +2403,59 @@
     </row>
     <row r="3" spans="1:29" s="34" customFormat="1" ht="126">
       <c r="A3" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="I3" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="J3" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="K3" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="L3" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="M3" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="N3" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="O3" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="M3" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="4" spans="1:29" ht="35" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="49" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -2478,23 +2476,23 @@
       <c r="I4" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>269</v>
+      <c r="J4" s="48" t="s">
+        <v>277</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
@@ -2511,13 +2509,13 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="30" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="48" t="s">
         <v>122</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2536,23 +2534,23 @@
       <c r="I5" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>273</v>
+      <c r="J5" s="48" t="s">
+        <v>282</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
@@ -2569,13 +2567,13 @@
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" ht="30" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="48" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="48" t="s">
         <v>127</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2592,23 +2590,23 @@
       <c r="I6" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>279</v>
+      <c r="J6" s="48" t="s">
+        <v>434</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
@@ -2625,13 +2623,13 @@
       <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29" ht="30" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="48" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>128</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2646,20 +2644,18 @@
         <v>263</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="5" t="s">
-        <v>284</v>
-      </c>
+      <c r="J7" s="10"/>
       <c r="K7" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="3"/>
@@ -2677,13 +2673,13 @@
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29" ht="30" customHeight="1">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="48" t="s">
         <v>83</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="50" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="5"/>
@@ -2694,7 +2690,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -2719,7 +2715,7 @@
       <c r="B9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="48" t="s">
         <v>131</v>
       </c>
       <c r="D9" s="5"/>
@@ -2753,7 +2749,7 @@
       <c r="B10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="48" t="s">
         <v>134</v>
       </c>
       <c r="D10" s="5"/>
@@ -2787,7 +2783,7 @@
       <c r="B11" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="48" t="s">
         <v>140</v>
       </c>
       <c r="D11" s="5"/>
@@ -2880,7 +2876,7 @@
     </row>
     <row r="14" spans="1:29" ht="59" customHeight="1">
       <c r="A14" s="41" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -2957,7 +2953,7 @@
         <v>48</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
@@ -2965,55 +2961,55 @@
     </row>
     <row r="16" spans="1:29" s="26" customFormat="1" ht="144">
       <c r="A16" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="28" t="s">
         <v>390</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="E16" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="F16" s="28" t="s">
         <v>392</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>395</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="K16" s="27" t="s">
         <v>396</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>399</v>
       </c>
       <c r="L16" s="29"/>
       <c r="M16" s="27" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="30" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="48" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -3040,10 +3036,10 @@
       <c r="K17" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="M17" s="47" t="s">
+      <c r="M17" s="48" t="s">
         <v>204</v>
       </c>
       <c r="N17" s="8" t="s">
@@ -3060,10 +3056,10 @@
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C18" s="47" t="s">
+      <c r="B18" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="48" t="s">
         <v>92</v>
       </c>
       <c r="D18" s="8"/>
@@ -3084,10 +3080,10 @@
       <c r="K18" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="M18" s="47" t="s">
+      <c r="M18" s="48" t="s">
         <v>205</v>
       </c>
       <c r="N18" s="8" t="s">
@@ -3104,10 +3100,10 @@
       <c r="A19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="47" t="s">
+      <c r="B19" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="48" t="s">
         <v>124</v>
       </c>
       <c r="D19" s="8"/>
@@ -3131,7 +3127,7 @@
       <c r="L19" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="48" t="s">
         <v>206</v>
       </c>
       <c r="N19" s="8" t="s">
@@ -3146,10 +3142,10 @@
       <c r="A20" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C20" s="47" t="s">
+      <c r="B20" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="C20" s="48" t="s">
         <v>215</v>
       </c>
       <c r="D20" s="8"/>
@@ -3185,13 +3181,13 @@
         <v>132</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="48" t="s">
         <v>231</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="45" t="s">
         <v>136</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3213,7 +3209,7 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:29" ht="30" customHeight="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="45" t="s">
         <v>139</v>
       </c>
       <c r="B22" s="8"/>
@@ -3221,11 +3217,11 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="45" t="s">
         <v>137</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -3235,7 +3231,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="O22" s="8"/>
       <c r="Z22" s="3"/>
@@ -3252,20 +3248,20 @@
       <c r="E23" s="8"/>
       <c r="F23" s="10"/>
       <c r="G23" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="O23" s="8"/>
       <c r="Z23" s="3"/>
@@ -3282,10 +3278,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="10"/>
       <c r="G24" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -3300,7 +3296,7 @@
     </row>
     <row r="25" spans="1:29" ht="30" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3308,10 +3304,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -3335,7 +3331,7 @@
     </row>
     <row r="26" spans="1:29" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3343,10 +3339,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -3370,7 +3366,7 @@
     </row>
     <row r="27" spans="1:29" ht="30" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3379,7 +3375,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -3453,34 +3449,40 @@
     </row>
     <row r="29" spans="1:29" s="26" customFormat="1" ht="96">
       <c r="A29" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="E29" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="F29" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="G29" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="H29" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="I29" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="J29" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="H29" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>412</v>
+      <c r="N29" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="30" customHeight="1">
@@ -3494,31 +3496,35 @@
         <v>248</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="N30" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>168</v>
+      </c>
       <c r="P30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -3544,25 +3550,29 @@
         <v>249</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="N31" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>169</v>
+      </c>
       <c r="P31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -3588,23 +3598,27 @@
         <v>250</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="N32" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="P32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -3628,21 +3642,23 @@
         <v>267</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="P33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -3664,20 +3680,23 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="P34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -3706,7 +3725,10 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="P35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -3723,7 +3745,7 @@
     </row>
     <row r="36" spans="1:29" ht="68" customHeight="1">
       <c r="A36" s="43" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -3737,7 +3759,10 @@
       <c r="K36" s="43"/>
       <c r="L36" s="43"/>
       <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="P36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3789,6 +3814,10 @@
       <c r="L37" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8" t="s">
+        <v>298</v>
+      </c>
       <c r="P37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -3805,40 +3834,40 @@
     </row>
     <row r="38" spans="1:29" ht="80">
       <c r="A38" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="D38" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="E38" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="F38" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="G38" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="H38" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="I38" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="J38" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="K38" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="L38" s="27" t="s">
         <v>421</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>424</v>
       </c>
       <c r="P38" s="3"/>
       <c r="R38" s="3"/>
@@ -3858,7 +3887,7 @@
       <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="48" t="s">
         <v>68</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -3879,18 +3908,22 @@
       <c r="H39" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>277</v>
+      <c r="I39" s="48" t="s">
+        <v>275</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>339</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N39" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" s="46"/>
       <c r="P39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -3909,7 +3942,7 @@
       <c r="A40" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="48" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="17" t="s">
@@ -3930,18 +3963,23 @@
       <c r="H40" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>278</v>
+      <c r="I40" s="48" t="s">
+        <v>276</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>340</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="O40" s="47"/>
       <c r="P40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -3979,20 +4017,28 @@
       <c r="H41" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="I41" s="5"/>
+      <c r="I41" s="48" t="s">
+        <v>435</v>
+      </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>74</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="48" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="17" t="s">
@@ -4003,7 +4049,7 @@
         <v>210</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="47" t="s">
+      <c r="G42" s="45" t="s">
         <v>126</v>
       </c>
       <c r="H42" s="5" t="s">
@@ -4012,17 +4058,23 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="48" t="s">
         <v>75</v>
       </c>
       <c r="C43" s="17" t="s">
@@ -4033,7 +4085,7 @@
         <v>74</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="47" t="s">
+      <c r="G43" s="45" t="s">
         <v>129</v>
       </c>
       <c r="H43" s="5" t="s">
@@ -4044,13 +4096,19 @@
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" s="3" customFormat="1" ht="48">
+        <v>347</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" s="3" customFormat="1" ht="64">
       <c r="A44" s="5" t="s">
         <v>193</v>
       </c>
@@ -4068,12 +4126,19 @@
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
+      </c>
+      <c r="M44"/>
+      <c r="N44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
@@ -4089,17 +4154,23 @@
       <c r="D45" s="8"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="47" t="s">
+      <c r="G45" s="45" t="s">
         <v>135</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45"/>
+      <c r="N45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A46" s="5" t="s">
@@ -4114,17 +4185,23 @@
       <c r="D46" s="8"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="47" t="s">
+      <c r="G46" s="45" t="s">
         <v>138</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46"/>
+      <c r="N46" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
@@ -4142,12 +4219,18 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47"/>
+      <c r="N47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A48" s="5" t="s">
@@ -4160,17 +4243,23 @@
       <c r="D48" s="8"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="47" t="s">
+      <c r="G48" s="45" t="s">
         <v>187</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48"/>
+      <c r="N48" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
@@ -4183,7 +4272,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="47" t="s">
+      <c r="G49" s="45" t="s">
         <v>190</v>
       </c>
       <c r="H49" s="5"/>
@@ -4192,17 +4281,23 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49"/>
+      <c r="N49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="17"/>
       <c r="D50" s="8"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="47" t="s">
+      <c r="G50" s="45" t="s">
         <v>191</v>
       </c>
       <c r="H50" s="5"/>
@@ -4211,10 +4306,16 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50"/>
+      <c r="N50" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="17"/>
@@ -4230,10 +4331,16 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51"/>
+      <c r="N51" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="17"/>
@@ -4248,7 +4355,12 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52"/>
+      <c r="N52" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A53" s="8"/>
@@ -4265,14 +4377,33 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
+      <c r="N53" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="I54"/>
-    </row>
-    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1"/>
+      <c r="N54" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="N55" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
     <row r="56" spans="1:29" ht="45" customHeight="1">
       <c r="A56" s="42" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
@@ -4286,7 +4417,12 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-      <c r="O56" s="3"/>
+      <c r="N56" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
@@ -4332,7 +4468,12 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
-      <c r="O57" s="3"/>
+      <c r="N57" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>350</v>
+      </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
@@ -4350,35 +4491,40 @@
     </row>
     <row r="58" spans="1:29" ht="80">
       <c r="A58" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="D58" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="E58" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="F58" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="G58" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="H58" s="27" t="s">
         <v>430</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>433</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
-      <c r="O58" s="3"/>
+      <c r="N58" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
@@ -4413,18 +4559,22 @@
       <c r="F59" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="G59" s="8" t="s">
-        <v>281</v>
+      <c r="G59" s="48" t="s">
+        <v>279</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="O59" s="3"/>
+      <c r="N59" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -4455,11 +4605,11 @@
       <c r="F60" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>282</v>
+      <c r="G60" s="48" t="s">
+        <v>280</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I60" s="3"/>
       <c r="O60" s="3"/>
@@ -4491,8 +4641,8 @@
       <c r="F61" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G61" s="8" t="s">
-        <v>283</v>
+      <c r="G61" s="48" t="s">
+        <v>281</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="3"/>
@@ -4615,12 +4765,6 @@
       <c r="AC65" s="3"/>
     </row>
     <row r="66" spans="1:29" ht="30" customHeight="1">
-      <c r="A66" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>167</v>
-      </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4646,12 +4790,6 @@
       <c r="AC66" s="3"/>
     </row>
     <row r="67" spans="1:29" ht="30" customHeight="1">
-      <c r="A67" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>168</v>
-      </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4679,12 +4817,6 @@
       <c r="AC67" s="3"/>
     </row>
     <row r="68" spans="1:29" ht="30" customHeight="1">
-      <c r="A68" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>169</v>
-      </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4713,12 +4845,6 @@
       <c r="AC68" s="3"/>
     </row>
     <row r="69" spans="1:29" ht="30" customHeight="1">
-      <c r="A69" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4747,10 +4873,6 @@
       <c r="AC69" s="3"/>
     </row>
     <row r="70" spans="1:29" ht="30" customHeight="1">
-      <c r="A70" s="5"/>
-      <c r="B70" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4779,10 +4901,6 @@
       <c r="AC70" s="3"/>
     </row>
     <row r="71" spans="1:29" ht="30" customHeight="1">
-      <c r="A71" s="5"/>
-      <c r="B71" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4811,10 +4929,6 @@
       <c r="AC71" s="3"/>
     </row>
     <row r="72" spans="1:29" ht="30" customHeight="1">
-      <c r="A72" s="5"/>
-      <c r="B72" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4843,10 +4957,6 @@
       <c r="AC72" s="3"/>
     </row>
     <row r="73" spans="1:29" ht="30" customHeight="1">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4875,10 +4985,6 @@
       <c r="AC73" s="3"/>
     </row>
     <row r="74" spans="1:29" ht="30" customHeight="1">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8" t="s">
-        <v>300</v>
-      </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4967,10 +5073,6 @@
       <c r="AC76" s="3"/>
     </row>
     <row r="77" spans="1:29" ht="30" customHeight="1">
-      <c r="A77" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="50"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4999,10 +5101,6 @@
       <c r="AC77" s="3"/>
     </row>
     <row r="78" spans="1:29" ht="48" customHeight="1">
-      <c r="A78" s="51" t="s">
-        <v>434</v>
-      </c>
-      <c r="B78" s="51"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5031,12 +5129,6 @@
       <c r="AC78" s="3"/>
     </row>
     <row r="79" spans="1:29" ht="32" customHeight="1">
-      <c r="A79" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5065,12 +5157,6 @@
       <c r="AC79" s="3"/>
     </row>
     <row r="80" spans="1:29" ht="30" customHeight="1">
-      <c r="A80" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5099,13 +5185,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="1:29" ht="30" customHeight="1">
-      <c r="A81" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>270</v>
-      </c>
+    <row r="81" spans="3:29" ht="30" customHeight="1">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5134,13 +5214,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="1:29" ht="30" customHeight="1">
-      <c r="A82" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>272</v>
-      </c>
+    <row r="82" spans="3:29" ht="30" customHeight="1">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5169,13 +5243,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="1:29" ht="30" customHeight="1">
-      <c r="A83" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>276</v>
-      </c>
+    <row r="83" spans="3:29" ht="30" customHeight="1">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5204,13 +5272,7 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="1:29" ht="30" customHeight="1">
-      <c r="A84" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>285</v>
-      </c>
+    <row r="84" spans="3:29" ht="30" customHeight="1">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5239,13 +5301,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="1:29" ht="30" customHeight="1">
-      <c r="A85" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>287</v>
-      </c>
+    <row r="85" spans="3:29" ht="30" customHeight="1">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5274,13 +5330,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="1:29" ht="30" customHeight="1">
-      <c r="A86" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>289</v>
-      </c>
+    <row r="86" spans="3:29" ht="30" customHeight="1">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5309,13 +5359,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="1:29" ht="30" customHeight="1">
-      <c r="A87" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>295</v>
-      </c>
+    <row r="87" spans="3:29" ht="30" customHeight="1">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5344,13 +5388,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="1:29" ht="30" customHeight="1">
-      <c r="A88" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>296</v>
-      </c>
+    <row r="88" spans="3:29" ht="30" customHeight="1">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5379,13 +5417,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="1:29" ht="30" customHeight="1">
-      <c r="A89" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>301</v>
-      </c>
+    <row r="89" spans="3:29" ht="30" customHeight="1">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5414,13 +5446,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="1:29" ht="30" customHeight="1">
-      <c r="A90" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>306</v>
-      </c>
+    <row r="90" spans="3:29" ht="30" customHeight="1">
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
       <c r="E90" s="3"/>
@@ -5449,13 +5475,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="1:29" ht="30" customHeight="1">
-      <c r="A91" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>295</v>
-      </c>
+    <row r="91" spans="3:29" ht="30" customHeight="1">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5484,13 +5504,7 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="1:29" ht="30" customHeight="1">
-      <c r="A92" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>325</v>
-      </c>
+    <row r="92" spans="3:29" ht="30" customHeight="1">
       <c r="I92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
@@ -5508,13 +5522,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="1:29" ht="30" customHeight="1">
-      <c r="A93" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>332</v>
-      </c>
+    <row r="93" spans="3:29" ht="30" customHeight="1">
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
@@ -5531,13 +5539,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="1:29" ht="30" customHeight="1">
-      <c r="A94" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>348</v>
-      </c>
+    <row r="94" spans="3:29" ht="30" customHeight="1">
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
@@ -5554,50 +5556,32 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="1:29" ht="30" customHeight="1">
-      <c r="A95" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>353</v>
-      </c>
+    <row r="95" spans="3:29" ht="30" customHeight="1">
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="1:29" ht="30" customHeight="1">
-      <c r="A96" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>357</v>
-      </c>
+    <row r="96" spans="3:29" ht="30" customHeight="1">
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" spans="1:17" ht="30" customHeight="1">
-      <c r="A97" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>244</v>
-      </c>
+    <row r="97" spans="17:17" ht="30" customHeight="1">
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" spans="1:17" ht="30" customHeight="1">
+    <row r="98" spans="17:17" ht="30" customHeight="1">
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" spans="1:17" ht="30" customHeight="1"/>
-    <row r="100" spans="1:17" ht="30" customHeight="1"/>
-    <row r="101" spans="1:17" ht="30" customHeight="1"/>
-    <row r="102" spans="1:17" ht="30" customHeight="1"/>
-    <row r="103" spans="1:17" ht="30" customHeight="1"/>
-    <row r="104" spans="1:17" ht="30" customHeight="1"/>
-    <row r="105" spans="1:17" ht="30" customHeight="1"/>
-    <row r="106" spans="1:17" ht="30" customHeight="1"/>
-    <row r="107" spans="1:17" ht="30" customHeight="1"/>
-    <row r="108" spans="1:17" ht="30" customHeight="1"/>
-    <row r="109" spans="1:17" ht="30" customHeight="1"/>
-    <row r="110" spans="1:17" ht="30" customHeight="1"/>
-    <row r="111" spans="1:17" ht="30" customHeight="1"/>
-    <row r="112" spans="1:17" ht="30" customHeight="1"/>
+    <row r="99" spans="17:17" ht="30" customHeight="1"/>
+    <row r="100" spans="17:17" ht="30" customHeight="1"/>
+    <row r="101" spans="17:17" ht="30" customHeight="1"/>
+    <row r="102" spans="17:17" ht="30" customHeight="1"/>
+    <row r="103" spans="17:17" ht="30" customHeight="1"/>
+    <row r="104" spans="17:17" ht="30" customHeight="1"/>
+    <row r="105" spans="17:17" ht="30" customHeight="1"/>
+    <row r="106" spans="17:17" ht="30" customHeight="1"/>
+    <row r="107" spans="17:17" ht="30" customHeight="1"/>
+    <row r="108" spans="17:17" ht="30" customHeight="1"/>
+    <row r="109" spans="17:17" ht="30" customHeight="1"/>
+    <row r="110" spans="17:17" ht="30" customHeight="1"/>
+    <row r="111" spans="17:17" ht="30" customHeight="1"/>
+    <row r="112" spans="17:17" ht="30" customHeight="1"/>
     <row r="113" ht="30" customHeight="1"/>
     <row r="114" ht="30" customHeight="1"/>
     <row r="115" ht="30" customHeight="1"/>
@@ -5611,8 +5595,8 @@
     <mergeCell ref="A14:O14"/>
     <mergeCell ref="A56:H56"/>
     <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Παραδοτέο 4/domain_classes.xlsx
+++ b/Παραδοτέο 4/domain_classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτέο 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C34772-4001-C445-A670-BE97995DE898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C8D142-3D17-2E4D-BFFF-FA93501408A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23760" yWindow="-26960" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
+    <workbookView xWindow="1540" yWindow="-27600" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain Classes" sheetId="2" r:id="rId1"/>
@@ -281,12 +281,6 @@
     <t>validateRoomateCompatibility()</t>
   </si>
   <si>
-    <t>displayUploadPhotoForm()</t>
-  </si>
-  <si>
-    <t>submitUploadPhotosForm()</t>
-  </si>
-  <si>
     <t>validatePhotos(photos)</t>
   </si>
   <si>
@@ -392,13 +386,7 @@
     <t>fetchSearchFormData()</t>
   </si>
   <si>
-    <t>createSeachHousingForm(formData)</t>
-  </si>
-  <si>
     <t>displaySearchForm()</t>
-  </si>
-  <si>
-    <t>getSearchCriteria()</t>
   </si>
   <si>
     <t>validateSearchForm()</t>
@@ -1518,12 +1506,24 @@
   <si>
     <t>deleteAssociatedInterests</t>
   </si>
+  <si>
+    <t>saveRentalTerms()</t>
+  </si>
+  <si>
+    <t>fillListingForm()</t>
+  </si>
+  <si>
+    <t>uploadPhotos ()</t>
+  </si>
+  <si>
+    <t>DATABASE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1645,8 +1645,15 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1723,8 +1730,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1793,13 +1806,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1866,9 +1890,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1949,6 +1970,15 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1957,6 +1987,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF381F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2287,27 +2322,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
   <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="67.1640625" customWidth="1"/>
-    <col min="4" max="4" width="73.6640625" customWidth="1"/>
-    <col min="5" max="5" width="69.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="4" max="4" width="58.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.1640625" customWidth="1"/>
     <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59" customWidth="1"/>
-    <col min="8" max="8" width="58.6640625" customWidth="1"/>
+    <col min="8" max="8" width="49.1640625" customWidth="1"/>
     <col min="9" max="9" width="42.5" customWidth="1"/>
     <col min="10" max="10" width="49.1640625" customWidth="1"/>
     <col min="11" max="11" width="50.5" customWidth="1"/>
     <col min="12" max="12" width="48.5" customWidth="1"/>
-    <col min="13" max="13" width="59" customWidth="1"/>
-    <col min="14" max="14" width="45.83203125" customWidth="1"/>
-    <col min="15" max="15" width="63.83203125" customWidth="1"/>
+    <col min="13" max="13" width="51.83203125" customWidth="1"/>
+    <col min="14" max="14" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54.6640625" customWidth="1"/>
     <col min="16" max="16" width="36" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="40.83203125" customWidth="1"/>
     <col min="18" max="18" width="26.83203125" customWidth="1"/>
@@ -2323,26 +2358,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="70" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>372</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="A1" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:29" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2384,8 +2419,8 @@
       <c r="N2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="39" t="s">
-        <v>371</v>
+      <c r="O2" s="38" t="s">
+        <v>367</v>
       </c>
       <c r="P2" s="3"/>
       <c r="R2" s="3"/>
@@ -2401,98 +2436,98 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" s="34" customFormat="1" ht="126">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:29" s="33" customFormat="1" ht="126">
+      <c r="A3" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="I3" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="K3" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="L3" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="M3" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="N3" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="O3" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="L3" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>386</v>
-      </c>
     </row>
     <row r="4" spans="1:29" ht="35" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>116</v>
+        <v>85</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J4" s="48" t="s">
-        <v>277</v>
+        <v>232</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>273</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
@@ -2509,48 +2544,48 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="30" customHeight="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>122</v>
+        <v>87</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>118</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>282</v>
+        <v>242</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>278</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
@@ -2567,46 +2602,46 @@
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" ht="30" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>127</v>
+        <v>93</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>123</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>434</v>
+        <v>248</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>430</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
@@ -2623,39 +2658,39 @@
       <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>128</v>
+        <v>98</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>124</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="3"/>
@@ -2673,19 +2708,19 @@
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29" ht="30" customHeight="1">
-      <c r="A8" s="48" t="s">
-        <v>83</v>
+      <c r="A8" s="47" t="s">
+        <v>81</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>130</v>
+        <v>103</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>126</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2713,10 +2748,10 @@
     <row r="9" spans="1:29" ht="30" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>127</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2747,10 +2782,10 @@
     <row r="10" spans="1:29" ht="30" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>134</v>
+        <v>107</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>130</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2781,10 +2816,10 @@
     <row r="11" spans="1:29" ht="30" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>140</v>
+        <v>109</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>136</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2816,7 +2851,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2875,23 +2910,23 @@
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:29" ht="59" customHeight="1">
-      <c r="A14" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
+      <c r="A14" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
       <c r="P14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2907,22 +2942,22 @@
       <c r="AC14" s="3"/>
     </row>
     <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="37" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -2931,7 +2966,7 @@
       <c r="H15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="36" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -2946,107 +2981,104 @@
       <c r="M15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="N15" s="34" t="s">
         <v>47</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:29" s="26" customFormat="1" ht="144">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:29" s="25" customFormat="1" ht="144">
+      <c r="A16" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="F16" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="G16" s="28"/>
+      <c r="H16" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="I16" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="J16" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="K16" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="27" t="s">
+      <c r="L16" s="28"/>
+      <c r="M16" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="N16" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="O16" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="K16" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>399</v>
-      </c>
     </row>
     <row r="17" spans="1:29" ht="30" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>93</v>
+      <c r="C17" s="47" t="s">
+        <v>91</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="M17" s="48" t="s">
-        <v>204</v>
+        <v>176</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" s="47" t="s">
+        <v>200</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -3056,41 +3088,41 @@
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>92</v>
+      <c r="B18" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>90</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="10"/>
       <c r="G18" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="L18" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="M18" s="48" t="s">
-        <v>205</v>
+        <v>177</v>
+      </c>
+      <c r="L18" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="M18" s="47" t="s">
+        <v>201</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -3100,38 +3132,38 @@
       <c r="A19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>124</v>
+      <c r="B19" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>120</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H19" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M19" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="M19" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="O19" s="8"/>
       <c r="Z19" s="3"/>
@@ -3140,36 +3172,36 @@
     </row>
     <row r="20" spans="1:29" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>215</v>
+        <v>112</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>211</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="10"/>
       <c r="G20" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O20" s="8"/>
       <c r="Z20" s="3"/>
@@ -3178,30 +3210,30 @@
     </row>
     <row r="21" spans="1:29" ht="30" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="48" t="s">
-        <v>231</v>
+      <c r="C21" s="47" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="45" t="s">
-        <v>136</v>
+      <c r="G21" s="44" t="s">
+        <v>132</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O21" s="8"/>
       <c r="Z21" s="3"/>
@@ -3209,29 +3241,29 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:29" ht="30" customHeight="1">
-      <c r="A22" s="45" t="s">
-        <v>139</v>
+      <c r="A22" s="44" t="s">
+        <v>135</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="45" t="s">
-        <v>137</v>
+      <c r="G22" s="44" t="s">
+        <v>133</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O22" s="8"/>
       <c r="Z22" s="3"/>
@@ -3240,7 +3272,7 @@
     </row>
     <row r="23" spans="1:29" ht="30" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3248,20 +3280,20 @@
       <c r="E23" s="8"/>
       <c r="F23" s="10"/>
       <c r="G23" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O23" s="8"/>
       <c r="Z23" s="3"/>
@@ -3270,7 +3302,7 @@
     </row>
     <row r="24" spans="1:29" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3278,10 +3310,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="10"/>
       <c r="G24" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -3296,7 +3328,7 @@
     </row>
     <row r="25" spans="1:29" ht="30" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3304,10 +3336,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -3331,7 +3363,7 @@
     </row>
     <row r="26" spans="1:29" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3339,10 +3371,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -3366,7 +3398,7 @@
     </row>
     <row r="27" spans="1:29" ht="30" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3375,7 +3407,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -3413,10 +3445,10 @@
       <c r="E28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="43" t="s">
         <v>55</v>
       </c>
       <c r="H28" s="11" t="s">
@@ -3428,7 +3460,9 @@
       <c r="J28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="43" t="s">
+        <v>429</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3447,84 +3481,75 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" s="26" customFormat="1" ht="96">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="96">
+      <c r="A29" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="F29" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="G29" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="H29" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="I29" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="J29" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="G29" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>167</v>
+      <c r="K29" s="26" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>288</v>
-      </c>
       <c r="F30" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="K30" s="3"/>
+        <v>340</v>
+      </c>
+      <c r="K30" s="8"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="O30" s="20" t="s">
-        <v>168</v>
-      </c>
       <c r="P30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -3541,38 +3566,32 @@
     </row>
     <row r="31" spans="1:29" ht="30" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J31" s="8"/>
-      <c r="K31" s="3"/>
+      <c r="K31" s="8"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="O31" s="20" t="s">
-        <v>169</v>
-      </c>
       <c r="P31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -3589,36 +3608,30 @@
     </row>
     <row r="32" spans="1:29" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J32" s="8"/>
-      <c r="K32" s="3"/>
+      <c r="K32" s="8"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="P32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -3635,30 +3648,26 @@
     </row>
     <row r="33" spans="1:29" ht="30" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J33" s="8"/>
-      <c r="K33" s="3"/>
+      <c r="K33" s="8"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="P33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -3675,28 +3684,24 @@
     </row>
     <row r="34" spans="1:29" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J34" s="8"/>
-      <c r="K34" s="3"/>
+      <c r="K34" s="8"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="P34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -3725,10 +3730,6 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="P35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -3744,25 +3745,25 @@
       <c r="AC35" s="3"/>
     </row>
     <row r="36" spans="1:29" ht="68" customHeight="1">
-      <c r="A36" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8" t="s">
-        <v>174</v>
-      </c>
+      <c r="A36" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="O36" s="52"/>
       <c r="P36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3800,7 +3801,7 @@
         <v>27</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>31</v>
@@ -3814,10 +3815,13 @@
       <c r="L37" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8" t="s">
-        <v>298</v>
-      </c>
+      <c r="M37" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="O37" s="45"/>
       <c r="P37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -3833,42 +3837,49 @@
       <c r="AC37" s="3"/>
     </row>
     <row r="38" spans="1:29" ht="80">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="E38" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="F38" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="G38" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="H38" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="I38" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="J38" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="K38" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="L38" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="M38" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="J38" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>421</v>
-      </c>
+      <c r="N38" s="46" t="s">
+        <v>427</v>
+      </c>
+      <c r="O38" s="46"/>
       <c r="P38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -3887,43 +3898,48 @@
       <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>74</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="I39" s="48" t="s">
-        <v>275</v>
+        <v>222</v>
+      </c>
+      <c r="I39" s="47" t="s">
+        <v>271</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="N39" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="O39" s="46"/>
+        <v>332</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="P39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -3942,44 +3958,48 @@
       <c r="A40" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>74</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I40" s="48" t="s">
-        <v>276</v>
+        <v>223</v>
+      </c>
+      <c r="I40" s="47" t="s">
+        <v>272</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="47" t="s">
-        <v>431</v>
-      </c>
-      <c r="O40" s="47"/>
+        <v>333</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="P40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -3996,49 +4016,52 @@
     </row>
     <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I41" s="48" t="s">
-        <v>435</v>
+        <v>230</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>431</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="M41" s="8" t="s">
+        <v>356</v>
+      </c>
       <c r="N41" s="5" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="17" t="s">
@@ -4046,158 +4069,152 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="45" t="s">
-        <v>126</v>
+      <c r="G42" s="44" t="s">
+        <v>122</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="45" t="s">
-        <v>129</v>
+      <c r="G43" s="44" t="s">
+        <v>125</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>35</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I43" s="8"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>347</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M43" s="8"/>
       <c r="N43" s="5" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" s="3" customFormat="1" ht="64">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="27" t="s">
-        <v>422</v>
-      </c>
+      <c r="I44" s="8"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="M44"/>
+        <v>347</v>
+      </c>
+      <c r="M44" s="10"/>
       <c r="N44" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="45" t="s">
-        <v>135</v>
+      <c r="G45" s="44" t="s">
+        <v>131</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="8" t="s">
-        <v>355</v>
-      </c>
+      <c r="I45" s="8"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45"/>
+      <c r="M45" s="10"/>
       <c r="N45" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="B46" s="5"/>
       <c r="C46" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="45" t="s">
-        <v>138</v>
+      <c r="G46" s="44" t="s">
+        <v>134</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="5" t="s">
-        <v>359</v>
-      </c>
+      <c r="I46" s="8"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46"/>
+      <c r="M46" s="10"/>
       <c r="N46" s="5" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>283</v>
@@ -4205,60 +4222,54 @@
     </row>
     <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B47" s="5"/>
       <c r="C47" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="8" t="s">
-        <v>360</v>
-      </c>
+      <c r="I47" s="8"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47"/>
+      <c r="M47" s="10"/>
       <c r="N47" s="5" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="45" t="s">
-        <v>187</v>
+      <c r="G48" s="44" t="s">
+        <v>183</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="8" t="s">
-        <v>366</v>
-      </c>
+      <c r="I48" s="8"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48"/>
+      <c r="M48" s="10"/>
       <c r="N48" s="5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
@@ -4267,55 +4278,55 @@
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="45" t="s">
-        <v>190</v>
+      <c r="G49" s="44" t="s">
+        <v>186</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="10"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49"/>
+      <c r="M49" s="10"/>
       <c r="N49" s="5" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="17"/>
       <c r="D50" s="8"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="45" t="s">
-        <v>191</v>
+      <c r="G50" s="44" t="s">
+        <v>187</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="10"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50"/>
+      <c r="M50" s="10"/>
       <c r="N50" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="17"/>
@@ -4323,24 +4334,24 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51"/>
+      <c r="M51" s="10"/>
       <c r="N51" s="5" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="17"/>
@@ -4348,18 +4359,19 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
+      <c r="M52" s="8"/>
       <c r="N52" s="5" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
@@ -4370,58 +4382,62 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="5"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
       <c r="N53" s="5" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="I54"/>
       <c r="N54" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="N55" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="45" customHeight="1">
-      <c r="A56" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
+      <c r="A56" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+      <c r="J56" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>163</v>
+      </c>
       <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
       <c r="N56" s="5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -4464,15 +4480,18 @@
         <v>39</v>
       </c>
       <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
+      <c r="J57" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="K57" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
       <c r="N57" s="5" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
@@ -4490,41 +4509,42 @@
       <c r="AC57" s="3"/>
     </row>
     <row r="58" spans="1:29" ht="80">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="E58" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="F58" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="G58" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="H58" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="E58" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>430</v>
-      </c>
       <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+      <c r="J58" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K58" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="O58" s="5" t="s">
-        <v>354</v>
-      </c>
+      <c r="N58" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="O58" s="8"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
@@ -4541,40 +4561,38 @@
       <c r="AC58" s="3"/>
     </row>
     <row r="59" spans="1:29" ht="30" customHeight="1">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>118</v>
+      <c r="B59" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>117</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G59" s="48" t="s">
-        <v>279</v>
+        <v>255</v>
+      </c>
+      <c r="G59" s="47" t="s">
+        <v>275</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+      <c r="J59" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="L59" s="3"/>
-      <c r="N59" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -4591,28 +4609,31 @@
       <c r="AC59" s="3"/>
     </row>
     <row r="60" spans="1:29" ht="30" customHeight="1">
-      <c r="A60" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8" t="s">
-        <v>120</v>
-      </c>
+      <c r="A60" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G60" s="48" t="s">
-        <v>280</v>
+        <v>256</v>
+      </c>
+      <c r="G60" s="47" t="s">
+        <v>276</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I60" s="3"/>
-      <c r="O60" s="3"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
@@ -4629,24 +4650,23 @@
       <c r="AC60" s="3"/>
     </row>
     <row r="61" spans="1:29" ht="30" customHeight="1">
-      <c r="A61" s="5"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="D61" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G61" s="48" t="s">
-        <v>281</v>
+        <v>257</v>
+      </c>
+      <c r="G61" s="47" t="s">
+        <v>277</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
@@ -4668,16 +4688,19 @@
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
@@ -4699,14 +4722,17 @@
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="Q63" s="3"/>
     </row>
     <row r="64" spans="1:29" ht="30" customHeight="1">
@@ -4714,14 +4740,17 @@
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8" t="s">
+        <v>294</v>
+      </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
@@ -4747,7 +4776,6 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
@@ -4772,7 +4800,6 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
@@ -4797,8 +4824,6 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="O67" s="3"/>
@@ -4824,8 +4849,6 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="O68" s="3"/>
@@ -4852,8 +4875,6 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="O69" s="3"/>
@@ -4880,8 +4901,6 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="O70" s="3"/>
@@ -4908,8 +4927,6 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="O71" s="3"/>
@@ -4936,8 +4953,6 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="O72" s="3"/>
@@ -4964,10 +4979,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
       <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
@@ -4992,10 +5004,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
@@ -5022,10 +5031,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
@@ -5052,10 +5058,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
@@ -5080,10 +5083,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
@@ -5111,7 +5111,6 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
@@ -5139,7 +5138,6 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
@@ -5167,8 +5165,6 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
@@ -5196,8 +5192,6 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
@@ -5590,13 +5584,14 @@
     <row r="118" ht="30" customHeight="1"/>
     <row r="119" ht="30" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A14:O14"/>
     <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="N36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Παραδοτέο 4/domain_classes.xlsx
+++ b/Παραδοτέο 4/domain_classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτέο 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C8D142-3D17-2E4D-BFFF-FA93501408A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC22418-3A55-F744-B34B-4D3E7718B2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="-27600" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="438">
   <si>
     <t>MainScreen</t>
   </si>
@@ -885,9 +885,6 @@
   </si>
   <si>
     <t>loadPendingRequests(user)</t>
-  </si>
-  <si>
-    <t>getPendingRentalRequests(user)</t>
   </si>
   <si>
     <t>getRentalTerms(rentalRequests)</t>
@@ -1518,12 +1515,18 @@
   <si>
     <t>DATABASE</t>
   </si>
+  <si>
+    <t>getPendingRentalRequests()</t>
+  </si>
+  <si>
+    <t>queryPendingRentalRequests(user)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1569,27 +1572,6 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Aptos Display"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1648,6 +1630,27 @@
     <font>
       <b/>
       <sz val="24"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -1820,8 +1823,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1910,49 +1913,37 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1961,22 +1952,34 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2322,11 +2325,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
   <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H23"/>
+    <sheetView tabSelected="1" topLeftCell="L35" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
@@ -2357,27 +2360,27 @@
     <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="70" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-    </row>
-    <row r="2" spans="1:29" ht="30" customHeight="1">
-      <c r="A2" s="43" t="s">
+    <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+    </row>
+    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2420,7 +2423,7 @@
         <v>26</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P2" s="3"/>
       <c r="R2" s="3"/>
@@ -2436,61 +2439,61 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" s="33" customFormat="1" ht="126">
+    <row r="3" spans="1:29" s="33" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="G3" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="H3" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="I3" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="J3" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="K3" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="L3" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="M3" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="O3" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="O3" s="31" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="35" customHeight="1">
-      <c r="A4" s="48" t="s">
+    </row>
+    <row r="4" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="44" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -2511,23 +2514,23 @@
       <c r="I4" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="43" t="s">
         <v>273</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>282</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
@@ -2543,14 +2546,14 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="30" customHeight="1">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="43" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2569,23 +2572,23 @@
       <c r="I5" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="43" t="s">
         <v>278</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
@@ -2601,14 +2604,14 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="30" customHeight="1">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="43" t="s">
         <v>123</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2625,23 +2628,23 @@
       <c r="I6" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="47" t="s">
-        <v>430</v>
+      <c r="J6" s="43" t="s">
+        <v>429</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
@@ -2657,14 +2660,14 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="43" t="s">
         <v>124</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2681,16 +2684,16 @@
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="3"/>
@@ -2707,14 +2710,14 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="30" customHeight="1">
-      <c r="A8" s="47" t="s">
+    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="45" t="s">
         <v>126</v>
       </c>
       <c r="D8" s="5"/>
@@ -2745,12 +2748,12 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="30" customHeight="1">
+    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="43" t="s">
         <v>127</v>
       </c>
       <c r="D9" s="5"/>
@@ -2779,12 +2782,12 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="30" customHeight="1">
+    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="43" t="s">
         <v>130</v>
       </c>
       <c r="D10" s="5"/>
@@ -2813,12 +2816,12 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="30" customHeight="1">
+    <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="43" t="s">
         <v>136</v>
       </c>
       <c r="D11" s="5"/>
@@ -2847,7 +2850,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="30" customHeight="1">
+    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -2879,7 +2882,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="84" customHeight="1">
+    <row r="13" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2909,24 +2912,24 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" ht="59" customHeight="1">
-      <c r="A14" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
+    <row r="14" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
       <c r="P14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2941,7 +2944,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>3</v>
       </c>
@@ -2954,7 +2957,7 @@
       <c r="D15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="46" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="37" t="s">
@@ -2991,57 +2994,57 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:29" s="25" customFormat="1" ht="144">
+    <row r="16" spans="1:29" s="25" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="C16" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="F16" s="27" t="s">
         <v>387</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>388</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="I16" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="J16" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="K16" s="26" t="s">
         <v>391</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>392</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="N16" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="O16" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="O16" s="26" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="30" customHeight="1">
-      <c r="A17" s="44" t="s">
+    </row>
+    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="43" t="s">
         <v>91</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -3068,10 +3071,10 @@
       <c r="K17" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="L17" s="47" t="s">
+      <c r="L17" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="M17" s="47" t="s">
+      <c r="M17" s="43" t="s">
         <v>200</v>
       </c>
       <c r="N17" s="8" t="s">
@@ -3084,14 +3087,14 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1">
+    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="43" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="8"/>
@@ -3112,10 +3115,10 @@
       <c r="K18" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="L18" s="47" t="s">
+      <c r="L18" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="M18" s="47" t="s">
+      <c r="M18" s="43" t="s">
         <v>201</v>
       </c>
       <c r="N18" s="8" t="s">
@@ -3128,14 +3131,14 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1">
+    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="43" t="s">
         <v>120</v>
       </c>
       <c r="D19" s="8"/>
@@ -3159,7 +3162,7 @@
       <c r="L19" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="43" t="s">
         <v>202</v>
       </c>
       <c r="N19" s="8" t="s">
@@ -3170,14 +3173,14 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="30" customHeight="1">
+    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="C20" s="47" t="s">
+      <c r="B20" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>211</v>
       </c>
       <c r="D20" s="8"/>
@@ -3208,18 +3211,18 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="30" customHeight="1">
+    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>128</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="43" t="s">
         <v>227</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3240,8 +3243,8 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="30" customHeight="1">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
         <v>135</v>
       </c>
       <c r="B22" s="8"/>
@@ -3249,11 +3252,11 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="40" t="s">
         <v>133</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -3263,14 +3266,14 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O22" s="8"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:29" ht="30" customHeight="1">
+    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>141</v>
       </c>
@@ -3280,10 +3283,10 @@
       <c r="E23" s="8"/>
       <c r="F23" s="10"/>
       <c r="G23" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -3293,14 +3296,14 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O23" s="8"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="30" customHeight="1">
+    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>174</v>
       </c>
@@ -3310,10 +3313,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="10"/>
       <c r="G24" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -3326,7 +3329,7 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="30" customHeight="1">
+    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>274</v>
       </c>
@@ -3336,10 +3339,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -3361,9 +3364,9 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:29" ht="30" customHeight="1">
+    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3371,10 +3374,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -3396,9 +3399,9 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="30" customHeight="1">
+    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3407,7 +3410,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -3429,7 +3432,7 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:29" ht="30" customHeight="1">
+    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>49</v>
       </c>
@@ -3448,7 +3451,7 @@
       <c r="F28" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="39" t="s">
         <v>55</v>
       </c>
       <c r="H28" s="11" t="s">
@@ -3460,8 +3463,8 @@
       <c r="J28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="43" t="s">
-        <v>429</v>
+      <c r="K28" s="39" t="s">
+        <v>428</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3481,42 +3484,42 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" s="25" customFormat="1" ht="96">
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="C29" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="D29" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="E29" s="26" t="s">
         <v>399</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="F29" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="G29" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="H29" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="I29" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="J29" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="J29" s="26" t="s">
-        <v>405</v>
-      </c>
       <c r="K29" s="26" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="30" customHeight="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>228</v>
       </c>
@@ -3530,22 +3533,22 @@
         <v>280</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="3"/>
@@ -3564,7 +3567,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" ht="30" customHeight="1">
+    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>231</v>
       </c>
@@ -3575,18 +3578,20 @@
         <v>245</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E31" s="8"/>
+        <v>313</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>436</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -3606,7 +3611,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" ht="30" customHeight="1">
+    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>237</v>
       </c>
@@ -3617,16 +3622,16 @@
         <v>246</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -3646,7 +3651,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" ht="30" customHeight="1">
+    <row r="33" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>243</v>
       </c>
@@ -3655,14 +3660,14 @@
         <v>263</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -3682,21 +3687,21 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" ht="30" customHeight="1">
+    <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>252</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -3716,7 +3721,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" ht="66" customHeight="1">
+    <row r="35" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3744,26 +3749,26 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" ht="68" customHeight="1">
-      <c r="A36" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="52" t="s">
-        <v>436</v>
-      </c>
-      <c r="O36" s="52"/>
+    <row r="36" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="O36" s="47"/>
       <c r="P36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3778,7 +3783,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" ht="30" customHeight="1">
+    <row r="37" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>0</v>
       </c>
@@ -3818,10 +3823,10 @@
       <c r="M37" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N37" s="45" t="s">
+      <c r="N37" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="O37" s="45"/>
+      <c r="O37" s="41"/>
       <c r="P37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -3836,50 +3841,50 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" ht="80">
+    <row r="38" spans="1:29" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B38" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="C38" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="D38" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="E38" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="F38" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="G38" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="H38" s="30" t="s">
         <v>412</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="I38" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="J38" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="K38" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="K38" s="26" t="s">
+      <c r="L38" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="L38" s="26" t="s">
+      <c r="M38" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="M38" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="N38" s="46" t="s">
-        <v>427</v>
-      </c>
-      <c r="O38" s="46"/>
+      <c r="N38" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="O38" s="42"/>
       <c r="P38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -3894,11 +3899,11 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" ht="30" customHeight="1">
+    <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -3919,20 +3924,20 @@
       <c r="H39" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="I39" s="47" t="s">
+      <c r="I39" s="43" t="s">
         <v>271</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>65</v>
@@ -3954,11 +3959,11 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" ht="30" customHeight="1">
+    <row r="40" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="17" t="s">
@@ -3979,20 +3984,20 @@
       <c r="H40" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="I40" s="47" t="s">
+      <c r="I40" s="43" t="s">
         <v>272</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>73</v>
@@ -4014,7 +4019,7 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>137</v>
       </c>
@@ -4037,18 +4042,18 @@
       <c r="H41" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I41" s="47" t="s">
-        <v>431</v>
+      <c r="I41" s="43" t="s">
+        <v>430</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>74</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>84</v>
@@ -4057,11 +4062,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="43" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="17" t="s">
@@ -4072,7 +4077,7 @@
         <v>206</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="44" t="s">
+      <c r="G42" s="40" t="s">
         <v>122</v>
       </c>
       <c r="H42" s="5" t="s">
@@ -4081,13 +4086,13 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>106</v>
@@ -4096,11 +4101,11 @@
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="43" t="s">
         <v>75</v>
       </c>
       <c r="C43" s="17" t="s">
@@ -4111,7 +4116,7 @@
         <v>74</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="44" t="s">
+      <c r="G43" s="40" t="s">
         <v>125</v>
       </c>
       <c r="H43" s="5" t="s">
@@ -4120,10 +4125,10 @@
       <c r="I43" s="8"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="5" t="s">
@@ -4133,7 +4138,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="44" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>189</v>
       </c>
@@ -4154,7 +4159,7 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="5" t="s">
@@ -4164,7 +4169,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>212</v>
       </c>
@@ -4177,7 +4182,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="44" t="s">
+      <c r="G45" s="40" t="s">
         <v>131</v>
       </c>
       <c r="H45" s="5"/>
@@ -4193,7 +4198,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>74</v>
       </c>
@@ -4204,7 +4209,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="44" t="s">
+      <c r="G46" s="40" t="s">
         <v>134</v>
       </c>
       <c r="H46" s="5"/>
@@ -4216,11 +4221,11 @@
       <c r="N46" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O46" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="O46" s="43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>241</v>
       </c>
@@ -4242,10 +4247,10 @@
         <v>142</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>264</v>
       </c>
@@ -4256,7 +4261,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="44" t="s">
+      <c r="G48" s="40" t="s">
         <v>183</v>
       </c>
       <c r="H48" s="5"/>
@@ -4269,10 +4274,10 @@
         <v>150</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>61</v>
       </c>
@@ -4283,7 +4288,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="44" t="s">
+      <c r="G49" s="40" t="s">
         <v>186</v>
       </c>
       <c r="H49" s="5"/>
@@ -4296,19 +4301,19 @@
         <v>158</v>
       </c>
       <c r="O49" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A50" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="17"/>
       <c r="D50" s="8"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="44" t="s">
+      <c r="G50" s="40" t="s">
         <v>187</v>
       </c>
       <c r="H50" s="5"/>
@@ -4321,12 +4326,12 @@
         <v>161</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="17"/>
@@ -4346,12 +4351,12 @@
         <v>185</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="17"/>
@@ -4371,10 +4376,10 @@
         <v>193</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4394,37 +4399,37 @@
         <v>198</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I54"/>
       <c r="N54" s="5" t="s">
         <v>199</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N55" s="5" t="s">
         <v>203</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="45" customHeight="1">
-      <c r="A56" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
       <c r="I56" s="3"/>
       <c r="J56" s="19" t="s">
         <v>60</v>
@@ -4437,7 +4442,7 @@
         <v>210</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -4454,7 +4459,7 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" ht="30" customHeight="1">
+    <row r="57" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>8</v>
       </c>
@@ -4508,30 +4513,30 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" ht="80">
+    <row r="58" spans="1:29" ht="80" x14ac:dyDescent="0.2">
       <c r="A58" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="B58" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="C58" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="D58" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="E58" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="F58" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="G58" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="H58" s="26" t="s">
         <v>425</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>426</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="5" t="s">
@@ -4541,8 +4546,8 @@
         <v>165</v>
       </c>
       <c r="L58" s="3"/>
-      <c r="N58" s="47" t="s">
-        <v>433</v>
+      <c r="N58" s="43" t="s">
+        <v>432</v>
       </c>
       <c r="O58" s="8"/>
       <c r="P58" s="3"/>
@@ -4560,14 +4565,14 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:29" ht="30" customHeight="1">
-      <c r="A59" s="47" t="s">
+    <row r="59" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="47" t="s">
+      <c r="C59" s="43" t="s">
         <v>117</v>
       </c>
       <c r="D59" s="8" t="s">
@@ -4579,11 +4584,11 @@
       <c r="F59" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="G59" s="47" t="s">
+      <c r="G59" s="43" t="s">
         <v>275</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="5" t="s">
@@ -4608,12 +4613,12 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" ht="30" customHeight="1">
-      <c r="A60" s="47" t="s">
+    <row r="60" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="B60" s="43" t="s">
         <v>434</v>
-      </c>
-      <c r="B60" s="47" t="s">
-        <v>435</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
@@ -4623,11 +4628,11 @@
       <c r="F60" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G60" s="47" t="s">
+      <c r="G60" s="43" t="s">
         <v>276</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="5"/>
@@ -4649,7 +4654,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" ht="30" customHeight="1">
+    <row r="61" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="8"/>
       <c r="D61" s="8" t="s">
         <v>152</v>
@@ -4658,7 +4663,7 @@
       <c r="F61" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="G61" s="47" t="s">
+      <c r="G61" s="43" t="s">
         <v>277</v>
       </c>
       <c r="H61" s="8"/>
@@ -4683,7 +4688,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" ht="30" customHeight="1">
+    <row r="62" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4717,7 +4722,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" ht="31" customHeight="1">
+    <row r="63" spans="1:29" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4735,7 +4740,7 @@
       </c>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="1:29" ht="30" customHeight="1">
+    <row r="64" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -4749,7 +4754,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
@@ -4767,7 +4772,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" ht="30" customHeight="1">
+    <row r="65" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4792,7 +4797,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" ht="30" customHeight="1">
+    <row r="66" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4816,7 +4821,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" ht="30" customHeight="1">
+    <row r="67" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4841,7 +4846,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" ht="30" customHeight="1">
+    <row r="68" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4867,7 +4872,7 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" ht="30" customHeight="1">
+    <row r="69" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4893,7 +4898,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" ht="30" customHeight="1">
+    <row r="70" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4919,7 +4924,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" ht="30" customHeight="1">
+    <row r="71" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4945,7 +4950,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" ht="30" customHeight="1">
+    <row r="72" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4971,7 +4976,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" ht="30" customHeight="1">
+    <row r="73" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4996,7 +5001,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" ht="30" customHeight="1">
+    <row r="74" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5021,7 +5026,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" ht="30" customHeight="1">
+    <row r="75" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5048,7 +5053,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" ht="30" customHeight="1">
+    <row r="76" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5075,7 +5080,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" ht="30" customHeight="1">
+    <row r="77" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5100,7 +5105,7 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" ht="48" customHeight="1">
+    <row r="78" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5127,7 +5132,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" ht="32" customHeight="1">
+    <row r="79" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5154,7 +5159,7 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" ht="30" customHeight="1">
+    <row r="80" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5181,7 +5186,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="3:29" ht="30" customHeight="1">
+    <row r="81" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5208,7 +5213,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="3:29" ht="30" customHeight="1">
+    <row r="82" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5237,7 +5242,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="3:29" ht="30" customHeight="1">
+    <row r="83" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5266,7 +5271,7 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="3:29" ht="30" customHeight="1">
+    <row r="84" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5295,7 +5300,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="3:29" ht="30" customHeight="1">
+    <row r="85" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5324,7 +5329,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="3:29" ht="30" customHeight="1">
+    <row r="86" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5353,7 +5358,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="3:29" ht="30" customHeight="1">
+    <row r="87" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5382,7 +5387,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="3:29" ht="30" customHeight="1">
+    <row r="88" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5411,7 +5416,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="3:29" ht="30" customHeight="1">
+    <row r="89" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5440,7 +5445,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="3:29" ht="30" customHeight="1">
+    <row r="90" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
       <c r="E90" s="3"/>
@@ -5469,7 +5474,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="3:29" ht="30" customHeight="1">
+    <row r="91" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5498,7 +5503,7 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="3:29" ht="30" customHeight="1">
+    <row r="92" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
@@ -5516,7 +5521,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="3:29" ht="30" customHeight="1">
+    <row r="93" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
@@ -5533,7 +5538,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="3:29" ht="30" customHeight="1">
+    <row r="94" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
@@ -5550,39 +5555,39 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="3:29" ht="30" customHeight="1">
+    <row r="95" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="3:29" ht="30" customHeight="1">
+    <row r="96" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" spans="17:17" ht="30" customHeight="1">
+    <row r="97" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" spans="17:17" ht="30" customHeight="1">
+    <row r="98" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" spans="17:17" ht="30" customHeight="1"/>
-    <row r="100" spans="17:17" ht="30" customHeight="1"/>
-    <row r="101" spans="17:17" ht="30" customHeight="1"/>
-    <row r="102" spans="17:17" ht="30" customHeight="1"/>
-    <row r="103" spans="17:17" ht="30" customHeight="1"/>
-    <row r="104" spans="17:17" ht="30" customHeight="1"/>
-    <row r="105" spans="17:17" ht="30" customHeight="1"/>
-    <row r="106" spans="17:17" ht="30" customHeight="1"/>
-    <row r="107" spans="17:17" ht="30" customHeight="1"/>
-    <row r="108" spans="17:17" ht="30" customHeight="1"/>
-    <row r="109" spans="17:17" ht="30" customHeight="1"/>
-    <row r="110" spans="17:17" ht="30" customHeight="1"/>
-    <row r="111" spans="17:17" ht="30" customHeight="1"/>
-    <row r="112" spans="17:17" ht="30" customHeight="1"/>
-    <row r="113" ht="30" customHeight="1"/>
-    <row r="114" ht="30" customHeight="1"/>
-    <row r="115" ht="30" customHeight="1"/>
-    <row r="116" ht="30" customHeight="1"/>
-    <row r="117" ht="30" customHeight="1"/>
-    <row r="118" ht="30" customHeight="1"/>
-    <row r="119" ht="30" customHeight="1"/>
+    <row r="99" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:O1"/>

--- a/Παραδοτέο 4/domain_classes.xlsx
+++ b/Παραδοτέο 4/domain_classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτέο 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC22418-3A55-F744-B34B-4D3E7718B2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E568258B-85A7-5F4E-A4AA-D4CCA05A72DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="-27600" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="437">
   <si>
     <t>MainScreen</t>
   </si>
@@ -200,9 +200,6 @@
     <t>RentalTerms</t>
   </si>
   <si>
-    <t>RentalDocumentVerifier</t>
-  </si>
-  <si>
     <t>RentalApplication</t>
   </si>
   <si>
@@ -887,9 +884,6 @@
     <t>loadPendingRequests(user)</t>
   </si>
   <si>
-    <t>getRentalTerms(rentalRequests)</t>
-  </si>
-  <si>
     <t>displayRentalTerms(rentalRequests)</t>
   </si>
   <si>
@@ -905,9 +899,6 @@
     <t>updateRentalStatus()</t>
   </si>
   <si>
-    <t>getRentalOwner()</t>
-  </si>
-  <si>
     <t>uploadDocuments()</t>
   </si>
   <si>
@@ -930,9 +921,6 @@
   </si>
   <si>
     <t>getTemporaryRentals(owner)</t>
-  </si>
-  <si>
-    <t>checkFIleFormatAndSize(documentSet)</t>
   </si>
   <si>
     <t>queryTemporaryRentals(owner)</t>
@@ -1343,11 +1331,6 @@
 private List&lt;CustomTerm&gt; additionalTerms;</t>
   </si>
   <si>
-    <t>private DocumentSet documentSet;
-private List&lt;String&gt; validationErrors;
-private boolean isValid;</t>
-  </si>
-  <si>
     <t>private Rental rental;
 private List&lt;Document&gt; uploadedDocuments;
 private boolean isReadyForFinalization;</t>
@@ -1520,6 +1503,18 @@
   </si>
   <si>
     <t>queryPendingRentalRequests(user)</t>
+  </si>
+  <si>
+    <t>getOwnerOfListing()</t>
+  </si>
+  <si>
+    <t>checkFileFormatAndSize()</t>
+  </si>
+  <si>
+    <t>acceptRentalTerms()</t>
+  </si>
+  <si>
+    <t>rejectRentalTerms()</t>
   </si>
 </sst>
 </file>
@@ -2325,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
   <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L35" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="143" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2362,7 +2357,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -2423,7 +2418,7 @@
         <v>26</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P2" s="3"/>
       <c r="R2" s="3"/>
@@ -2441,96 +2436,96 @@
     </row>
     <row r="3" spans="1:29" s="33" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="G3" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="H3" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>427</v>
-      </c>
-      <c r="E3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="J3" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="K3" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="L3" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="M3" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="O3" s="31" t="s">
         <v>377</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>282</v>
+        <v>272</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>281</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
@@ -2548,47 +2543,47 @@
     </row>
     <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>285</v>
+        <v>277</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>283</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
@@ -2606,45 +2601,45 @@
     </row>
     <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>429</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>287</v>
+        <v>424</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>285</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
@@ -2662,38 +2657,38 @@
     </row>
     <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="5" t="s">
-        <v>291</v>
+      <c r="K7" s="43" t="s">
+        <v>288</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="3"/>
@@ -2712,18 +2707,18 @@
     </row>
     <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2751,10 +2746,10 @@
     <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2785,10 +2780,10 @@
     <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2819,10 +2814,10 @@
     <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2854,7 +2849,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2914,7 +2909,7 @@
     </row>
     <row r="14" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
@@ -2996,92 +2991,92 @@
     </row>
     <row r="16" spans="1:29" s="25" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="F16" s="27" t="s">
         <v>383</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>387</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="26" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="26" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L17" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M17" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -3089,43 +3084,43 @@
     </row>
     <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="10"/>
       <c r="G18" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L18" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M18" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -3133,40 +3128,40 @@
     </row>
     <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M19" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O19" s="8"/>
       <c r="Z19" s="3"/>
@@ -3175,36 +3170,36 @@
     </row>
     <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="10"/>
       <c r="G20" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O20" s="8"/>
       <c r="Z20" s="3"/>
@@ -3213,30 +3208,30 @@
     </row>
     <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="10"/>
       <c r="G21" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O21" s="8"/>
       <c r="Z21" s="3"/>
@@ -3245,7 +3240,7 @@
     </row>
     <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3253,20 +3248,20 @@
       <c r="E22" s="8"/>
       <c r="F22" s="10"/>
       <c r="G22" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O22" s="8"/>
       <c r="Z22" s="3"/>
@@ -3275,7 +3270,7 @@
     </row>
     <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3283,20 +3278,20 @@
       <c r="E23" s="8"/>
       <c r="F23" s="10"/>
       <c r="G23" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O23" s="8"/>
       <c r="Z23" s="3"/>
@@ -3305,7 +3300,7 @@
     </row>
     <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3313,10 +3308,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="10"/>
       <c r="G24" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -3331,7 +3326,7 @@
     </row>
     <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3339,10 +3334,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -3366,7 +3361,7 @@
     </row>
     <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3374,10 +3369,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -3401,7 +3396,7 @@
     </row>
     <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3410,7 +3405,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -3448,23 +3443,20 @@
       <c r="E28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="G28" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="H28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="J28" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" s="39" t="s">
-        <v>428</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3486,71 +3478,65 @@
     </row>
     <row r="29" spans="1:29" s="25" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="F29" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="G29" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="H29" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="I29" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="J29" s="26" t="s">
         <v>399</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="J29" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="K29" s="26" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>298</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="K30" s="8"/>
+        <v>335</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="P30" s="3"/>
@@ -3569,32 +3555,28 @@
     </row>
     <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>436</v>
+        <v>309</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="P31" s="3"/>
@@ -3613,28 +3595,27 @@
     </row>
     <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="P32" s="3"/>
@@ -3653,24 +3634,23 @@
     </row>
     <row r="33" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="P33" s="3"/>
@@ -3689,22 +3669,21 @@
     </row>
     <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="P34" s="3"/>
@@ -3751,7 +3730,7 @@
     </row>
     <row r="36" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="48" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
@@ -3766,7 +3745,7 @@
       <c r="L36" s="48"/>
       <c r="M36" s="49"/>
       <c r="N36" s="47" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O36" s="47"/>
       <c r="P36" s="3"/>
@@ -3806,7 +3785,7 @@
         <v>27</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>31</v>
@@ -3843,46 +3822,46 @@
     </row>
     <row r="38" spans="1:29" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="F38" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="G38" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="H38" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="I38" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="J38" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="K38" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="L38" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="M38" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="I38" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="J38" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="L38" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="M38" s="26" t="s">
-        <v>417</v>
-      </c>
       <c r="N38" s="42" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="O38" s="42"/>
       <c r="P38" s="3"/>
@@ -3901,49 +3880,49 @@
     </row>
     <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>284</v>
+        <v>270</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>282</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P39" s="3"/>
       <c r="R39" s="3"/>
@@ -3961,49 +3940,49 @@
     </row>
     <row r="40" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>290</v>
+        <v>271</v>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P40" s="3"/>
       <c r="R40" s="3"/>
@@ -4021,169 +4000,173 @@
     </row>
     <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>430</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>425</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>435</v>
+      </c>
       <c r="K41" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="J42" s="43" t="s">
+        <v>436</v>
+      </c>
       <c r="K42" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="8"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="8"/>
@@ -4192,25 +4175,25 @@
       <c r="L45" s="5"/>
       <c r="M45" s="10"/>
       <c r="N45" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8"/>
@@ -4219,19 +4202,19 @@
       <c r="L46" s="5"/>
       <c r="M46" s="10"/>
       <c r="N46" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="43" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="5"/>
@@ -4244,25 +4227,25 @@
       <c r="L47" s="5"/>
       <c r="M47" s="10"/>
       <c r="N47" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>288</v>
+        <v>141</v>
+      </c>
+      <c r="O47" s="43" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8"/>
@@ -4271,25 +4254,25 @@
       <c r="L48" s="5"/>
       <c r="M48" s="10"/>
       <c r="N48" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>289</v>
+        <v>149</v>
+      </c>
+      <c r="O48" s="43" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="10"/>
@@ -4298,15 +4281,15 @@
       <c r="L49" s="5"/>
       <c r="M49" s="10"/>
       <c r="N49" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="O49" s="5" t="s">
-        <v>294</v>
+        <v>157</v>
+      </c>
+      <c r="O49" s="43" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="17"/>
@@ -4314,7 +4297,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="10"/>
@@ -4323,15 +4306,15 @@
       <c r="L50" s="5"/>
       <c r="M50" s="10"/>
       <c r="N50" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="17"/>
@@ -4339,7 +4322,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -4348,15 +4331,15 @@
       <c r="L51" s="5"/>
       <c r="M51" s="10"/>
       <c r="N51" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="17"/>
@@ -4364,7 +4347,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -4373,10 +4356,10 @@
       <c r="L52" s="5"/>
       <c r="M52" s="8"/>
       <c r="N52" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4387,7 +4370,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="5"/>
@@ -4396,32 +4379,32 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I54"/>
       <c r="N54" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N55" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
@@ -4432,17 +4415,17 @@
       <c r="H56" s="52"/>
       <c r="I56" s="3"/>
       <c r="J56" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L56" s="3"/>
       <c r="N56" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -4467,7 +4450,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>13</v>
@@ -4486,17 +4469,17 @@
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L57" s="3"/>
       <c r="N57" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
@@ -4515,39 +4498,39 @@
     </row>
     <row r="58" spans="1:29" ht="80" x14ac:dyDescent="0.2">
       <c r="A58" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="F58" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="G58" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="H58" s="26" t="s">
         <v>420</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>425</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L58" s="3"/>
       <c r="N58" s="43" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="O58" s="8"/>
       <c r="P58" s="3"/>
@@ -4567,35 +4550,35 @@
     </row>
     <row r="59" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G59" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>286</v>
+        <v>274</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>284</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L59" s="3"/>
       <c r="P59" s="3"/>
@@ -4615,29 +4598,29 @@
     </row>
     <row r="60" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="43" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G60" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>292</v>
+        <v>275</v>
+      </c>
+      <c r="H60" s="43" t="s">
+        <v>289</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="5"/>
       <c r="K60" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
@@ -4657,20 +4640,22 @@
     <row r="61" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="8"/>
       <c r="D61" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G61" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="H61" s="8"/>
+        <v>276</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>434</v>
+      </c>
       <c r="I61" s="3"/>
       <c r="J61" s="5"/>
       <c r="K61" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -4693,18 +4678,20 @@
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
+      <c r="H62" s="43" t="s">
+        <v>287</v>
+      </c>
       <c r="I62" s="3"/>
       <c r="J62" s="5"/>
       <c r="K62" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -4727,7 +4714,7 @@
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -4736,7 +4723,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q63" s="3"/>
     </row>
@@ -4745,7 +4732,7 @@
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -4753,8 +4740,8 @@
       <c r="H64" s="8"/>
       <c r="I64" s="3"/>
       <c r="J64" s="8"/>
-      <c r="K64" s="8" t="s">
-        <v>293</v>
+      <c r="K64" s="43" t="s">
+        <v>290</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>

--- a/Παραδοτέο 4/domain_classes.xlsx
+++ b/Παραδοτέο 4/domain_classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτέο 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E568258B-85A7-5F4E-A4AA-D4CCA05A72DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D0C7F-967D-B049-8D20-281A8D3518C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="-27600" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="435">
   <si>
     <t>MainScreen</t>
   </si>
@@ -200,9 +200,6 @@
     <t>RentalTerms</t>
   </si>
   <si>
-    <t>RentalApplication</t>
-  </si>
-  <si>
     <t>ReliabilityScore</t>
   </si>
   <si>
@@ -927,12 +924,6 @@
   </si>
   <si>
     <t>showFinalizeOptions(temporaryRentalRequests)</t>
-  </si>
-  <si>
-    <t>confirmRentalSelection(rental)</t>
-  </si>
-  <si>
-    <t>setStatusReadyForFinalization(rental)</t>
   </si>
   <si>
     <t>getAllRentalDetails(rental)</t>
@@ -1331,11 +1322,6 @@
 private List&lt;CustomTerm&gt; additionalTerms;</t>
   </si>
   <si>
-    <t>private Rental rental;
-private List&lt;Document&gt; uploadedDocuments;
-private boolean isReadyForFinalization;</t>
-  </si>
-  <si>
     <t>private int userID;
 private double score;
 private int numberOfPayments;
@@ -1515,6 +1501,12 @@
   </si>
   <si>
     <t>rejectRentalTerms()</t>
+  </si>
+  <si>
+    <t>selectRentalForFinalization()</t>
+  </si>
+  <si>
+    <t>markForFinalization(RentalTerms rental)</t>
   </si>
 </sst>
 </file>
@@ -2320,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
   <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="143" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2357,7 +2349,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -2418,7 +2410,7 @@
         <v>26</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P2" s="3"/>
       <c r="R2" s="3"/>
@@ -2436,96 +2428,96 @@
     </row>
     <row r="3" spans="1:29" s="33" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="F3" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="G3" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>422</v>
-      </c>
-      <c r="E3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="I3" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="J3" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="K3" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="L3" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="M3" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="O3" s="31" t="s">
         <v>374</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>183</v>
+        <v>158</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>182</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K4" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
@@ -2543,47 +2535,45 @@
     </row>
     <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>203</v>
+      <c r="F5" s="43" t="s">
+        <v>202</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>297</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
@@ -2601,45 +2591,45 @@
     </row>
     <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K6" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
@@ -2657,38 +2647,38 @@
     </row>
     <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="3"/>
@@ -2707,18 +2697,18 @@
     </row>
     <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2746,10 +2736,10 @@
     <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2780,10 +2770,10 @@
     <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2814,10 +2804,10 @@
     <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2849,7 +2839,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2909,7 +2899,7 @@
     </row>
     <row r="14" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
@@ -2991,92 +2981,92 @@
     </row>
     <row r="16" spans="1:29" s="25" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="E16" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="F16" s="27" t="s">
         <v>380</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>383</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="K16" s="26" t="s">
         <v>384</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>387</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="26" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L17" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M17" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -3084,43 +3074,43 @@
     </row>
     <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="10"/>
       <c r="G18" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L18" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M18" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -3128,40 +3118,40 @@
     </row>
     <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M19" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O19" s="8"/>
       <c r="Z19" s="3"/>
@@ -3170,36 +3160,36 @@
     </row>
     <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="10"/>
       <c r="G20" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O20" s="8"/>
       <c r="Z20" s="3"/>
@@ -3208,30 +3198,30 @@
     </row>
     <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="10"/>
       <c r="G21" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O21" s="8"/>
       <c r="Z21" s="3"/>
@@ -3240,7 +3230,7 @@
     </row>
     <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3248,20 +3238,20 @@
       <c r="E22" s="8"/>
       <c r="F22" s="10"/>
       <c r="G22" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="O22" s="8"/>
       <c r="Z22" s="3"/>
@@ -3270,7 +3260,7 @@
     </row>
     <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3278,20 +3268,20 @@
       <c r="E23" s="8"/>
       <c r="F23" s="10"/>
       <c r="G23" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O23" s="8"/>
       <c r="Z23" s="3"/>
@@ -3300,7 +3290,7 @@
     </row>
     <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3308,10 +3298,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="10"/>
       <c r="G24" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -3326,7 +3316,7 @@
     </row>
     <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3334,10 +3324,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -3361,7 +3351,7 @@
     </row>
     <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3369,10 +3359,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -3396,7 +3386,7 @@
     </row>
     <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3405,7 +3395,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -3444,19 +3434,16 @@
         <v>53</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>423</v>
-      </c>
-      <c r="G28" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3478,64 +3465,58 @@
     </row>
     <row r="29" spans="1:29" s="25" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="E29" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="F29" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="H29" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="I29" s="26" t="s">
         <v>394</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="J29" s="26" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -3555,28 +3536,28 @@
     </row>
     <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>293</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
-        <v>298</v>
-      </c>
+      <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="J31" s="8"/>
+        <v>326</v>
+      </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="P31" s="3"/>
@@ -3595,27 +3576,26 @@
     </row>
     <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E32" s="8"/>
+        <v>336</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>434</v>
+      </c>
       <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
-        <v>299</v>
-      </c>
+      <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="J32" s="8"/>
+        <v>327</v>
+      </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="P32" s="3"/>
@@ -3634,23 +3614,24 @@
     </row>
     <row r="33" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="E33" s="8"/>
+        <v>337</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>296</v>
+      </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="J33" s="8"/>
+        <v>329</v>
+      </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="P33" s="3"/>
@@ -3669,21 +3650,20 @@
     </row>
     <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="J34" s="8"/>
+        <v>330</v>
+      </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="P34" s="3"/>
@@ -3730,7 +3710,7 @@
     </row>
     <row r="36" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="48" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
@@ -3745,7 +3725,7 @@
       <c r="L36" s="48"/>
       <c r="M36" s="49"/>
       <c r="N36" s="47" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="O36" s="47"/>
       <c r="P36" s="3"/>
@@ -3785,7 +3765,7 @@
         <v>27</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>31</v>
@@ -3822,46 +3802,46 @@
     </row>
     <row r="38" spans="1:29" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="E38" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="F38" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="G38" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="H38" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="I38" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="J38" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="K38" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="L38" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="M38" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="J38" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="L38" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="M38" s="26" t="s">
-        <v>412</v>
-      </c>
       <c r="N38" s="42" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="O38" s="42"/>
       <c r="P38" s="3"/>
@@ -3879,50 +3859,50 @@
       <c r="AC38" s="3"/>
     </row>
     <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>62</v>
+      <c r="A39" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J39" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>296</v>
+        <v>281</v>
+      </c>
+      <c r="K39" s="43" t="s">
+        <v>295</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P39" s="3"/>
       <c r="R39" s="3"/>
@@ -3940,49 +3920,49 @@
     </row>
     <row r="40" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P40" s="3"/>
       <c r="R40" s="3"/>
@@ -4000,173 +3980,175 @@
     </row>
     <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="43" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="8"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="K44" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="L44" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="8"/>
@@ -4175,25 +4157,25 @@
       <c r="L45" s="5"/>
       <c r="M45" s="10"/>
       <c r="N45" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>73</v>
+      <c r="A46" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8"/>
@@ -4202,19 +4184,19 @@
       <c r="L46" s="5"/>
       <c r="M46" s="10"/>
       <c r="N46" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="43" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="5"/>
@@ -4227,25 +4209,25 @@
       <c r="L47" s="5"/>
       <c r="M47" s="10"/>
       <c r="N47" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>263</v>
+      <c r="A48" s="43" t="s">
+        <v>262</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8"/>
@@ -4254,25 +4236,25 @@
       <c r="L48" s="5"/>
       <c r="M48" s="10"/>
       <c r="N48" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="43" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>60</v>
+      <c r="A49" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="10"/>
@@ -4281,15 +4263,15 @@
       <c r="L49" s="5"/>
       <c r="M49" s="10"/>
       <c r="N49" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O49" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="43" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="17"/>
@@ -4297,7 +4279,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="10"/>
@@ -4306,15 +4288,15 @@
       <c r="L50" s="5"/>
       <c r="M50" s="10"/>
       <c r="N50" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="17"/>
@@ -4322,7 +4304,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -4331,15 +4313,15 @@
       <c r="L51" s="5"/>
       <c r="M51" s="10"/>
       <c r="N51" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="17"/>
@@ -4347,7 +4329,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -4356,10 +4338,10 @@
       <c r="L52" s="5"/>
       <c r="M52" s="8"/>
       <c r="N52" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4370,7 +4352,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="5"/>
@@ -4379,32 +4361,32 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I54"/>
       <c r="N54" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N55" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
@@ -4415,17 +4397,17 @@
       <c r="H56" s="52"/>
       <c r="I56" s="3"/>
       <c r="J56" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L56" s="3"/>
       <c r="N56" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -4450,7 +4432,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>13</v>
@@ -4469,17 +4451,17 @@
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L57" s="3"/>
       <c r="N57" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
@@ -4498,39 +4480,39 @@
     </row>
     <row r="58" spans="1:29" ht="80" x14ac:dyDescent="0.2">
       <c r="A58" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="E58" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="F58" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="G58" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="H58" s="26" t="s">
         <v>416</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>420</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L58" s="3"/>
       <c r="N58" s="43" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="O58" s="8"/>
       <c r="P58" s="3"/>
@@ -4550,35 +4532,35 @@
     </row>
     <row r="59" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G59" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H59" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L59" s="3"/>
       <c r="P59" s="3"/>
@@ -4598,29 +4580,29 @@
     </row>
     <row r="60" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="43" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G60" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="5"/>
       <c r="K60" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
@@ -4640,22 +4622,22 @@
     <row r="61" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="8"/>
       <c r="D61" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G61" s="43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="5"/>
       <c r="K61" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -4678,20 +4660,20 @@
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="5"/>
       <c r="K62" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -4714,7 +4696,7 @@
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -4723,7 +4705,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q63" s="3"/>
     </row>
@@ -4732,7 +4714,7 @@
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -4741,7 +4723,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="8"/>
       <c r="K64" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>

--- a/Παραδοτέο 4/domain_classes.xlsx
+++ b/Παραδοτέο 4/domain_classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτέο 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D0C7F-967D-B049-8D20-281A8D3518C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5628AA5D-2378-DD48-A9E5-BF66DD6F4CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="-27600" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
@@ -938,9 +938,6 @@
     <t>prefillWithValidData(details)</t>
   </si>
   <si>
-    <t>dislayContractForm()</t>
-  </si>
-  <si>
     <t>generateContractPDF()</t>
   </si>
   <si>
@@ -948,9 +945,6 @@
   </si>
   <si>
     <t>cancelContractFinalization()</t>
-  </si>
-  <si>
-    <t>confitmContractCancellation()</t>
   </si>
   <si>
     <t>terminateContractCreation()</t>
@@ -1508,12 +1502,18 @@
   <si>
     <t>markForFinalization(RentalTerms rental)</t>
   </si>
+  <si>
+    <t>dislayContractPreview()</t>
+  </si>
+  <si>
+    <t>submitContract(RentalTerms rental)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2312,11 +2312,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
   <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="139" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
@@ -2347,9 +2347,9 @@
     <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="70" customHeight="1">
       <c r="A1" s="51" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -2366,7 +2366,7 @@
       <c r="N1" s="51"/>
       <c r="O1" s="51"/>
     </row>
-    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="30" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>26</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P2" s="3"/>
       <c r="R2" s="3"/>
@@ -2426,54 +2426,54 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" s="33" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="33" customFormat="1" ht="126">
       <c r="A3" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="D3" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="F3" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>418</v>
-      </c>
-      <c r="E3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="H3" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="I3" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="J3" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="K3" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="L3" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="M3" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="O3" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="N3" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:29" ht="35" customHeight="1">
       <c r="A4" s="44" t="s">
         <v>62</v>
       </c>
@@ -2507,17 +2507,17 @@
       <c r="K4" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="44" t="s">
         <v>292</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
@@ -2533,7 +2533,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="30" customHeight="1">
       <c r="A5" s="43" t="s">
         <v>65</v>
       </c>
@@ -2565,15 +2565,17 @@
       <c r="K5" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="43" t="s">
+        <v>299</v>
+      </c>
       <c r="M5" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
@@ -2589,7 +2591,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="30" customHeight="1">
       <c r="A6" s="43" t="s">
         <v>74</v>
       </c>
@@ -2614,22 +2616,22 @@
         <v>246</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K6" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>299</v>
+      <c r="L6" s="43" t="s">
+        <v>303</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
@@ -2645,7 +2647,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="30" customHeight="1">
       <c r="A7" s="43" t="s">
         <v>78</v>
       </c>
@@ -2671,14 +2673,11 @@
       <c r="K7" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="M7" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="3"/>
@@ -2695,7 +2694,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="30" customHeight="1">
       <c r="A8" s="43" t="s">
         <v>79</v>
       </c>
@@ -2733,7 +2732,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="30" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>103</v>
@@ -2767,7 +2766,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="30" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>105</v>
@@ -2801,7 +2800,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="30" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>107</v>
@@ -2835,7 +2834,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="30" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -2867,7 +2866,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="84" customHeight="1">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2897,9 +2896,9 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="59" customHeight="1">
       <c r="A14" s="50" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
@@ -2929,7 +2928,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="24" t="s">
         <v>3</v>
       </c>
@@ -2979,50 +2978,50 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:29" s="25" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="25" customFormat="1" ht="144">
       <c r="A16" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="E16" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="F16" s="27" t="s">
         <v>378</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>380</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="J16" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="K16" s="26" t="s">
         <v>382</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>384</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="O16" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="N16" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="O16" s="26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:29" ht="30" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>64</v>
       </c>
@@ -3072,7 +3071,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>69</v>
       </c>
@@ -3116,7 +3115,7 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="30" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>63</v>
       </c>
@@ -3158,12 +3157,12 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>209</v>
@@ -3196,7 +3195,7 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="30" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>126</v>
       </c>
@@ -3228,7 +3227,7 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="30" customHeight="1">
       <c r="A22" s="40" t="s">
         <v>133</v>
       </c>
@@ -3240,7 +3239,7 @@
       <c r="G22" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="40" t="s">
         <v>297</v>
       </c>
       <c r="I22" s="8"/>
@@ -3251,14 +3250,14 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O22" s="8"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="30" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>139</v>
       </c>
@@ -3268,10 +3267,10 @@
       <c r="E23" s="8"/>
       <c r="F23" s="10"/>
       <c r="G23" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>301</v>
+        <v>344</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>300</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -3281,14 +3280,14 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O23" s="8"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>172</v>
       </c>
@@ -3298,10 +3297,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="10"/>
       <c r="G24" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -3314,7 +3313,7 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="30" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>272</v>
       </c>
@@ -3324,10 +3323,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -3349,9 +3348,9 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3359,10 +3358,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -3384,9 +3383,9 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="30" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3395,7 +3394,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -3417,7 +3416,7 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="30" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>49</v>
       </c>
@@ -3434,7 +3433,7 @@
         <v>53</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>56</v>
@@ -3463,36 +3462,36 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" s="25" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="96">
       <c r="A29" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="D29" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="E29" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="F29" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="H29" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="I29" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="F29" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:29" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>226</v>
       </c>
@@ -3506,17 +3505,17 @@
         <v>278</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -3534,7 +3533,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="30" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>229</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>243</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E31" s="43" t="s">
         <v>293</v>
@@ -3553,10 +3552,10 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -3574,7 +3573,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>235</v>
       </c>
@@ -3585,16 +3584,16 @@
         <v>244</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -3612,7 +3611,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="30" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>241</v>
       </c>
@@ -3621,7 +3620,7 @@
         <v>261</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E33" s="43" t="s">
         <v>296</v>
@@ -3630,7 +3629,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -3648,21 +3647,21 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>250</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -3680,7 +3679,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="66" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3708,9 +3707,9 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="68" customHeight="1">
       <c r="A36" s="48" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
@@ -3725,7 +3724,7 @@
       <c r="L36" s="48"/>
       <c r="M36" s="49"/>
       <c r="N36" s="47" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O36" s="47"/>
       <c r="P36" s="3"/>
@@ -3742,7 +3741,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="30" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>0</v>
       </c>
@@ -3800,48 +3799,48 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" ht="80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="80">
       <c r="A38" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="D38" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="E38" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="F38" s="26" t="s">
         <v>399</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="G38" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="H38" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="I38" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="J38" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="K38" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="L38" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="K38" s="26" t="s">
+      <c r="M38" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="L38" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="M38" s="26" t="s">
-        <v>408</v>
-      </c>
       <c r="N38" s="42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O38" s="42"/>
       <c r="P38" s="3"/>
@@ -3858,7 +3857,7 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="30" customHeight="1">
       <c r="A39" s="43" t="s">
         <v>61</v>
       </c>
@@ -3893,10 +3892,10 @@
         <v>295</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>63</v>
@@ -3918,7 +3917,7 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="30" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>60</v>
       </c>
@@ -3949,14 +3948,14 @@
       <c r="J40" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="43" t="s">
         <v>298</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>71</v>
@@ -3978,7 +3977,7 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>135</v>
       </c>
@@ -4002,19 +4001,19 @@
         <v>228</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>300</v>
+        <v>429</v>
+      </c>
+      <c r="K41" s="43" t="s">
+        <v>433</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>72</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>82</v>
@@ -4023,7 +4022,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>169</v>
       </c>
@@ -4046,16 +4045,16 @@
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="43" t="s">
-        <v>432</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>303</v>
+        <v>430</v>
+      </c>
+      <c r="K42" s="43" t="s">
+        <v>302</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>104</v>
@@ -4064,7 +4063,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>186</v>
       </c>
@@ -4087,11 +4086,11 @@
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="5" t="s">
-        <v>304</v>
+      <c r="K43" s="43" t="s">
+        <v>434</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="5" t="s">
@@ -4101,7 +4100,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>187</v>
       </c>
@@ -4120,11 +4119,11 @@
       <c r="H44" s="5"/>
       <c r="I44" s="8"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="5" t="s">
-        <v>433</v>
+      <c r="K44" s="43" t="s">
+        <v>431</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="5" t="s">
@@ -4134,7 +4133,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>210</v>
       </c>
@@ -4163,7 +4162,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A46" s="43" t="s">
         <v>72</v>
       </c>
@@ -4187,10 +4186,10 @@
         <v>138</v>
       </c>
       <c r="O46" s="43" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>239</v>
       </c>
@@ -4215,7 +4214,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A48" s="43" t="s">
         <v>262</v>
       </c>
@@ -4239,10 +4238,10 @@
         <v>148</v>
       </c>
       <c r="O48" s="43" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A49" s="43" t="s">
         <v>59</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A50" s="43" t="s">
         <v>291</v>
       </c>
@@ -4294,9 +4293,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="17"/>
@@ -4319,9 +4318,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="17"/>
@@ -4341,10 +4340,10 @@
         <v>191</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4364,29 +4363,29 @@
         <v>196</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="I54"/>
       <c r="N54" s="5" t="s">
         <v>197</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="N55" s="5" t="s">
         <v>201</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="45" customHeight="1">
       <c r="A56" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
@@ -4407,7 +4406,7 @@
         <v>208</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -4424,7 +4423,7 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="30" customHeight="1">
       <c r="A57" s="18" t="s">
         <v>8</v>
       </c>
@@ -4478,30 +4477,30 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" ht="80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="80">
       <c r="A58" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C58" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="D58" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="E58" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="F58" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="G58" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="H58" s="26" t="s">
         <v>414</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>416</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="5" t="s">
@@ -4512,7 +4511,7 @@
       </c>
       <c r="L58" s="3"/>
       <c r="N58" s="43" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O58" s="8"/>
       <c r="P58" s="3"/>
@@ -4530,7 +4529,7 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="30" customHeight="1">
       <c r="A59" s="43" t="s">
         <v>77</v>
       </c>
@@ -4578,12 +4577,12 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="30" customHeight="1">
       <c r="A60" s="43" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
@@ -4619,7 +4618,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="30" customHeight="1">
       <c r="B61" s="8"/>
       <c r="D61" s="8" t="s">
         <v>150</v>
@@ -4632,7 +4631,7 @@
         <v>275</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="5"/>
@@ -4655,7 +4654,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="30" customHeight="1">
       <c r="A62" s="5"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4691,7 +4690,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="31" customHeight="1">
       <c r="A63" s="5"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4709,7 +4708,7 @@
       </c>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="30" customHeight="1">
       <c r="A64" s="5"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -4741,7 +4740,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="30" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4766,7 +4765,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="30" customHeight="1">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4790,7 +4789,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="30" customHeight="1">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4815,7 +4814,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="30" customHeight="1">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4841,7 +4840,7 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="30" customHeight="1">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4867,7 +4866,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="30" customHeight="1">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4893,7 +4892,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="30" customHeight="1">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4919,7 +4918,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="30" customHeight="1">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4945,7 +4944,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="30" customHeight="1">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4970,7 +4969,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="30" customHeight="1">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4995,7 +4994,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="30" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5022,7 +5021,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="30" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5049,7 +5048,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="30" customHeight="1">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5074,7 +5073,7 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="48" customHeight="1">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5101,7 +5100,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="32" customHeight="1">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5128,7 +5127,7 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="30" customHeight="1">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5155,7 +5154,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" ht="30" customHeight="1">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5182,7 +5181,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" ht="30" customHeight="1">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5211,7 +5210,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:29" ht="30" customHeight="1">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5240,7 +5239,7 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" ht="30" customHeight="1">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5269,7 +5268,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:29" ht="30" customHeight="1">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5298,7 +5297,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:29" ht="30" customHeight="1">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5327,7 +5326,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:29" ht="30" customHeight="1">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5356,7 +5355,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:29" ht="30" customHeight="1">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5385,7 +5384,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:29" ht="30" customHeight="1">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5414,7 +5413,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" ht="30" customHeight="1">
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
       <c r="E90" s="3"/>
@@ -5443,7 +5442,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:29" ht="30" customHeight="1">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5472,7 +5471,7 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" ht="30" customHeight="1">
       <c r="I92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
@@ -5490,7 +5489,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:29" ht="30" customHeight="1">
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
@@ -5507,7 +5506,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:29" ht="30" customHeight="1">
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
@@ -5524,39 +5523,39 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" ht="30" customHeight="1">
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:29" ht="30" customHeight="1">
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="17:17" ht="30" customHeight="1">
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="17:17" ht="30" customHeight="1">
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="17:17" ht="30" customHeight="1"/>
+    <row r="100" spans="17:17" ht="30" customHeight="1"/>
+    <row r="101" spans="17:17" ht="30" customHeight="1"/>
+    <row r="102" spans="17:17" ht="30" customHeight="1"/>
+    <row r="103" spans="17:17" ht="30" customHeight="1"/>
+    <row r="104" spans="17:17" ht="30" customHeight="1"/>
+    <row r="105" spans="17:17" ht="30" customHeight="1"/>
+    <row r="106" spans="17:17" ht="30" customHeight="1"/>
+    <row r="107" spans="17:17" ht="30" customHeight="1"/>
+    <row r="108" spans="17:17" ht="30" customHeight="1"/>
+    <row r="109" spans="17:17" ht="30" customHeight="1"/>
+    <row r="110" spans="17:17" ht="30" customHeight="1"/>
+    <row r="111" spans="17:17" ht="30" customHeight="1"/>
+    <row r="112" spans="17:17" ht="30" customHeight="1"/>
+    <row r="113" ht="30" customHeight="1"/>
+    <row r="114" ht="30" customHeight="1"/>
+    <row r="115" ht="30" customHeight="1"/>
+    <row r="116" ht="30" customHeight="1"/>
+    <row r="117" ht="30" customHeight="1"/>
+    <row r="118" ht="30" customHeight="1"/>
+    <row r="119" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:O1"/>

--- a/Παραδοτέο 4/domain_classes.xlsx
+++ b/Παραδοτέο 4/domain_classes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτέο 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5628AA5D-2378-DD48-A9E5-BF66DD6F4CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FF2320-6120-CA4B-B6F6-A20A8BE740DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="-27600" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
+    <workbookView xWindow="7280" yWindow="-26720" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain Classes" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="430">
   <si>
     <t>MainScreen</t>
   </si>
@@ -68,9 +68,6 @@
     <t>UploadPhotoForm</t>
   </si>
   <si>
-    <t>Photo</t>
-  </si>
-  <si>
     <t>LocationScreen</t>
   </si>
   <si>
@@ -263,12 +260,6 @@
     <t>cancelListingCreation()</t>
   </si>
   <si>
-    <t>displayListingForm()</t>
-  </si>
-  <si>
-    <t>submitListingForm()</t>
-  </si>
-  <si>
     <t>validateRequiredFields()</t>
   </si>
   <si>
@@ -377,9 +368,6 @@
     <t>initiateSearchHousing()</t>
   </si>
   <si>
-    <t>fetchSearchFormData()</t>
-  </si>
-  <si>
     <t>displaySearchForm()</t>
   </si>
   <si>
@@ -395,18 +383,12 @@
     <t>createPromptMessage("promt")</t>
   </si>
   <si>
-    <t>displayPrompt()</t>
-  </si>
-  <si>
     <t>acceptFilters()</t>
   </si>
   <si>
     <t>applyPreferences(criteria,preferences)</t>
   </si>
   <si>
-    <t>ignorePreferences()</t>
-  </si>
-  <si>
     <t>declineFilters()</t>
   </si>
   <si>
@@ -419,9 +401,6 @@
     <t>fetchListings(preferences)</t>
   </si>
   <si>
-    <t>requestBroaderSearch()</t>
-  </si>
-  <si>
     <t>broadenSearch()</t>
   </si>
   <si>
@@ -605,15 +584,9 @@
     <t>displayExistingInterest(interestDetails)</t>
   </si>
   <si>
-    <t>keepExistingInterest()</t>
-  </si>
-  <si>
     <t>cancelExistingInterest(listingID)</t>
   </si>
   <si>
-    <t>deleteInterest(userID,listingID)</t>
-  </si>
-  <si>
     <t>createCancellationaEmail()</t>
   </si>
   <si>
@@ -908,9 +881,6 @@
     <t>sendForDigitalVerification(documentSet)</t>
   </si>
   <si>
-    <t>updateRentalStatus(user,"Rental Accept")</t>
-  </si>
-  <si>
     <t>onFinalizeRentalClicked()</t>
   </si>
   <si>
@@ -944,6 +914,9 @@
     <t>markAsAnavailable(listing)</t>
   </si>
   <si>
+    <t>deleteListingInterests()</t>
+  </si>
+  <si>
     <t>cancelContractFinalization()</t>
   </si>
   <si>
@@ -960,9 +933,6 @@
   </si>
   <si>
     <t>handleReturnToCallingUseCase()</t>
-  </si>
-  <si>
-    <t>updateRentalStatus(rental,"Completed")</t>
   </si>
   <si>
     <t>setListingUnavailable(listing)</t>
@@ -1464,9 +1434,6 @@
     <t>displayValidationResult()</t>
   </si>
   <si>
-    <t>deleteAssociatedInterests</t>
-  </si>
-  <si>
     <t>saveRentalTerms()</t>
   </si>
   <si>
@@ -1507,13 +1474,31 @@
   </si>
   <si>
     <t>submitContract(RentalTerms rental)</t>
+  </si>
+  <si>
+    <t>deleteAssociatedInterests()</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>handleSearchCritiria()</t>
+  </si>
+  <si>
+    <t>fillSearchCriteria()</t>
+  </si>
+  <si>
+    <t>askToApplyPreferences()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1727,7 +1712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1797,6 +1782,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1813,7 +1809,7 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1933,11 +1929,11 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1946,6 +1942,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1957,7 +1956,7 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1968,6 +1967,14 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2312,11 +2319,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
   <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="139" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="L38" zoomScale="164" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
@@ -2347,70 +2354,70 @@
     <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="70" customHeight="1">
-      <c r="A1" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-    </row>
-    <row r="2" spans="1:29" ht="30" customHeight="1">
+    <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+    </row>
+    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="O2" s="38" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="P2" s="3"/>
       <c r="R2" s="3"/>
@@ -2426,98 +2433,98 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" s="33" customFormat="1" ht="126">
+    <row r="3" spans="1:29" s="33" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="L3" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="M3" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="E3" s="32" t="s">
+      <c r="O3" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="35" customHeight="1">
+    </row>
+    <row r="4" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="J4" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="K4" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="K4" s="44" t="s">
-        <v>280</v>
-      </c>
       <c r="L4" s="44" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
@@ -2533,49 +2540,49 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="30" customHeight="1">
+    <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="43" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="L5" s="43" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
@@ -2591,47 +2598,47 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="30" customHeight="1">
+    <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="K6" s="43" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L6" s="43" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
@@ -2647,37 +2654,38 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="30" customHeight="1">
+    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>122</v>
+        <v>93</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>118</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="43" t="s">
-        <v>287</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="L7" s="56"/>
       <c r="M7" s="5" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="3"/>
@@ -2694,27 +2702,27 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="30" customHeight="1">
+    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>124</v>
+        <v>98</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>119</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="8"/>
@@ -2732,13 +2740,13 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="30" customHeight="1">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
       <c r="B9" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2746,9 +2754,9 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="8"/>
@@ -2766,13 +2774,13 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="30" customHeight="1">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
       <c r="B10" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2780,9 +2788,9 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="8"/>
@@ -2800,13 +2808,13 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="30" customHeight="1">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
       <c r="B11" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>134</v>
+        <v>427</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2814,9 +2822,9 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="8"/>
@@ -2834,21 +2842,18 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="30" customHeight="1">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="8"/>
@@ -2866,7 +2871,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="84" customHeight="1">
+    <row r="13" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2896,24 +2901,24 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" ht="59" customHeight="1">
-      <c r="A14" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
+    <row r="14" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
       <c r="P14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2928,7 +2933,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>3</v>
       </c>
@@ -2939,400 +2944,398 @@
         <v>7</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="E15" s="47" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="36" t="s">
+      <c r="J15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="M15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="N15" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="34" t="s">
+      <c r="O15" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:29" s="25" customFormat="1" ht="144">
+    <row r="16" spans="1:29" s="25" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="26" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="26" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
-        <v>64</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L17" s="43" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="M17" s="43" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>69</v>
+    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="D18" s="43"/>
       <c r="E18" s="8"/>
       <c r="F18" s="10"/>
       <c r="G18" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L18" s="43" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="M18" s="43" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>63</v>
+    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>120</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="D19" s="43"/>
       <c r="E19" s="8"/>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="L19" s="8" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="M19" s="43" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O19" s="8"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="30" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>110</v>
+    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="D20" s="43"/>
       <c r="E20" s="8"/>
       <c r="F20" s="10"/>
       <c r="G20" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H20" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="O20" s="8"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="30" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="8"/>
+    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>292</v>
+      </c>
       <c r="C21" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>216</v>
+      </c>
+      <c r="D21" s="43"/>
       <c r="E21" s="8"/>
       <c r="F21" s="10"/>
       <c r="G21" s="40" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="8" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="O21" s="8"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="30" customHeight="1">
-      <c r="A22" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="43"/>
       <c r="F22" s="10"/>
       <c r="G22" s="40" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="8" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="O22" s="8"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:29" ht="30" customHeight="1">
+    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="43"/>
       <c r="F23" s="10"/>
       <c r="G23" s="8" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="8" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="O23" s="8"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="30" customHeight="1">
+    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="43"/>
       <c r="F24" s="10"/>
       <c r="G24" s="8" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="30" customHeight="1">
+    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+        <v>132</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="43"/>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="3"/>
@@ -3348,26 +3351,25 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:29" ht="30" customHeight="1">
+    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="43"/>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="3"/>
@@ -3383,24 +3385,24 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="30" customHeight="1">
+    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+        <v>299</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="3"/>
@@ -3416,33 +3418,33 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:29" ht="30" customHeight="1">
+    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="F28" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3462,60 +3464,62 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" s="25" customFormat="1" ht="96">
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="30" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>278</v>
+      <c r="D30" s="43" t="s">
+        <v>269</v>
       </c>
       <c r="E30" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="F30" s="43" t="s">
         <v>425</v>
       </c>
-      <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -3533,29 +3537,29 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" ht="30" customHeight="1">
+    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>304</v>
+        <v>234</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>295</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="F31" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="F31" s="43"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -3573,27 +3577,27 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" ht="30" customHeight="1">
+    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>244</v>
-      </c>
       <c r="D32" s="8" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>432</v>
-      </c>
-      <c r="F32" s="8"/>
+        <v>421</v>
+      </c>
+      <c r="F32" s="43"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -3611,25 +3615,25 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" ht="30" customHeight="1">
+    <row r="33" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="F33" s="8"/>
+        <v>286</v>
+      </c>
+      <c r="F33" s="43"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -3647,21 +3651,21 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" ht="30" customHeight="1">
+    <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+        <v>341</v>
+      </c>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -3679,7 +3683,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" ht="66" customHeight="1">
+    <row r="35" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3707,26 +3711,26 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" ht="68" customHeight="1">
-      <c r="A36" s="48" t="s">
-        <v>354</v>
-      </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="O36" s="47"/>
+    <row r="36" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="O36" s="48"/>
       <c r="P36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3741,7 +3745,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" ht="30" customHeight="1">
+    <row r="37" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>0</v>
       </c>
@@ -3749,42 +3753,42 @@
         <v>6</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="F37" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="G37" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="I37" s="14" t="s">
+      <c r="J37" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="K37" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="L37" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="M37" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N37" s="41" t="s">
+      <c r="N37" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="O37" s="41"/>
+      <c r="O37" s="42"/>
       <c r="P37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -3799,50 +3803,50 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" ht="80">
+    <row r="38" spans="1:29" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="K38" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="L38" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="M38" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="J38" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="L38" s="26" t="s">
+      <c r="N38" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="M38" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="N38" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="O38" s="42"/>
+      <c r="O38" s="54"/>
       <c r="P38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -3857,51 +3861,51 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" ht="30" customHeight="1">
+    <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>114</v>
+        <v>71</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="J39" s="43" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="K39" s="43" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>63</v>
+        <v>331</v>
+      </c>
+      <c r="N39" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="P39" s="3"/>
       <c r="R39" s="3"/>
@@ -3917,51 +3921,51 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" ht="30" customHeight="1">
+    <row r="40" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F40" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="N40" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="O40" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I40" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="J40" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="K40" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="P40" s="3"/>
       <c r="R40" s="3"/>
@@ -3977,437 +3981,425 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>68</v>
+        <v>128</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
-        <v>119</v>
+      <c r="G41" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="K41" s="43" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>82</v>
+        <v>336</v>
+      </c>
+      <c r="N41" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="40" t="s">
-        <v>120</v>
+      <c r="G42" s="43" t="s">
+        <v>429</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I42" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="I42" s="43"/>
       <c r="J42" s="43" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="K42" s="43" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>104</v>
+        <v>342</v>
+      </c>
+      <c r="N42" s="43" t="s">
+        <v>101</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="40" t="s">
-        <v>123</v>
+      <c r="G43" s="43" t="s">
+        <v>115</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
       <c r="K43" s="43" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>106</v>
+      </c>
+      <c r="O43" s="43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B44" s="40"/>
       <c r="C44" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5" t="s">
-        <v>127</v>
+      <c r="G44" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="5"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
       <c r="K44" s="43" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>108</v>
+      </c>
+      <c r="O44" s="43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B45" s="40"/>
       <c r="C45" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="40" t="s">
-        <v>129</v>
+      <c r="G45" s="43" t="s">
+        <v>122</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
       <c r="L45" s="5"/>
       <c r="M45" s="10"/>
       <c r="N45" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>131</v>
+      </c>
+      <c r="O45" s="43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="B46" s="40"/>
       <c r="C46" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="40" t="s">
-        <v>132</v>
+      <c r="G46" s="43" t="s">
+        <v>125</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
       <c r="L46" s="5"/>
       <c r="M46" s="10"/>
       <c r="N46" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O46" s="43" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B47" s="5"/>
+        <v>230</v>
+      </c>
+      <c r="B47" s="40"/>
       <c r="C47" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="G47" s="43" t="s">
+        <v>174</v>
+      </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
       <c r="L47" s="5"/>
       <c r="M47" s="10"/>
       <c r="N47" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="43" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="B48" s="5"/>
+        <v>253</v>
+      </c>
+      <c r="B48" s="40"/>
       <c r="C48" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="40" t="s">
-        <v>181</v>
+      <c r="G48" s="43" t="s">
+        <v>177</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
       <c r="L48" s="5"/>
       <c r="M48" s="10"/>
       <c r="N48" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="43" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="B49" s="40"/>
       <c r="C49" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="40" t="s">
-        <v>184</v>
+      <c r="G49" s="43" t="s">
+        <v>178</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
       <c r="L49" s="5"/>
       <c r="M49" s="10"/>
       <c r="N49" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O49" s="43" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="B50" s="5"/>
+        <v>281</v>
+      </c>
+      <c r="B50" s="40"/>
       <c r="C50" s="17"/>
       <c r="D50" s="8"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="40" t="s">
-        <v>185</v>
+      <c r="G50" s="43" t="s">
+        <v>181</v>
       </c>
       <c r="H50" s="5"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
       <c r="L50" s="5"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="5" t="s">
-        <v>159</v>
+      <c r="N50" s="43" t="s">
+        <v>176</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B51" s="5"/>
+        <v>306</v>
+      </c>
+      <c r="B51" s="40"/>
       <c r="C51" s="17"/>
       <c r="D51" s="8"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
-        <v>188</v>
+      <c r="G51" s="43" t="s">
+        <v>182</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
       <c r="L51" s="5"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="5" t="s">
-        <v>183</v>
+      <c r="N51" s="43" t="s">
+        <v>410</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B52" s="5"/>
+        <v>328</v>
+      </c>
+      <c r="B52" s="40"/>
       <c r="C52" s="17"/>
       <c r="D52" s="8"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5" t="s">
-        <v>189</v>
-      </c>
+      <c r="G52" s="41"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
       <c r="L52" s="5"/>
       <c r="M52" s="8"/>
-      <c r="N52" s="5" t="s">
-        <v>191</v>
+      <c r="N52" s="43" t="s">
+        <v>187</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="8" t="s">
-        <v>190</v>
-      </c>
+      <c r="G53" s="40"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
-      <c r="N53" s="5" t="s">
-        <v>196</v>
+      <c r="N53" s="43" t="s">
+        <v>188</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I54"/>
       <c r="N54" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N55" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="45" customHeight="1">
-      <c r="A56" s="52" t="s">
-        <v>355</v>
-      </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
       <c r="I56" s="3"/>
       <c r="J56" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L56" s="3"/>
-      <c r="N56" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="O56" s="5" t="s">
-        <v>340</v>
-      </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
@@ -4423,7 +4415,7 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" ht="30" customHeight="1">
+    <row r="57" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>8</v>
       </c>
@@ -4431,37 +4423,31 @@
         <v>9</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="G57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="H57" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L57" s="3"/>
-      <c r="N57" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
@@ -4477,43 +4463,40 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" ht="80">
+    <row r="58" spans="1:29" ht="80" x14ac:dyDescent="0.2">
       <c r="A58" s="26" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L58" s="3"/>
-      <c r="N58" s="43" t="s">
-        <v>421</v>
-      </c>
-      <c r="O58" s="8"/>
+      <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
@@ -4529,39 +4512,40 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:29" ht="30" customHeight="1">
+    <row r="59" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="43" t="s">
-        <v>80</v>
-      </c>
       <c r="C59" s="43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G59" s="43" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H59" s="43" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L59" s="3"/>
+      <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -4577,31 +4561,31 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" ht="30" customHeight="1">
+    <row r="60" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="43" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>423</v>
-      </c>
-      <c r="C60" s="8"/>
+        <v>412</v>
+      </c>
+      <c r="C60" s="43"/>
       <c r="D60" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G60" s="43" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="5"/>
       <c r="K60" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
@@ -4618,25 +4602,27 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" ht="30" customHeight="1">
-      <c r="B61" s="8"/>
+    <row r="61" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="56"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G61" s="43" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="5"/>
       <c r="K61" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -4654,25 +4640,25 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" ht="30" customHeight="1">
-      <c r="A62" s="5"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
+    <row r="62" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G62" s="8"/>
+        <v>249</v>
+      </c>
+      <c r="G62" s="43"/>
       <c r="H62" s="43" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="5"/>
       <c r="K62" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -4690,39 +4676,40 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" ht="31" customHeight="1">
-      <c r="A63" s="5"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
+    <row r="63" spans="1:29" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
       <c r="D63" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
       <c r="I63" s="3"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8" t="s">
-        <v>168</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="O63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="1:29" ht="30" customHeight="1">
-      <c r="A64" s="5"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
+    <row r="64" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
       <c r="I64" s="3"/>
       <c r="J64" s="8"/>
       <c r="K64" s="43" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
@@ -4740,7 +4727,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" ht="30" customHeight="1">
+    <row r="65" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4765,7 +4752,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" ht="30" customHeight="1">
+    <row r="66" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4789,7 +4776,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" ht="30" customHeight="1">
+    <row r="67" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4814,7 +4801,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" ht="30" customHeight="1">
+    <row r="68" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4840,7 +4827,7 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" ht="30" customHeight="1">
+    <row r="69" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4866,7 +4853,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" ht="30" customHeight="1">
+    <row r="70" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4892,7 +4879,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" ht="30" customHeight="1">
+    <row r="71" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4918,7 +4905,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" ht="30" customHeight="1">
+    <row r="72" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4944,7 +4931,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" ht="30" customHeight="1">
+    <row r="73" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4969,7 +4956,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" ht="30" customHeight="1">
+    <row r="74" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4994,7 +4981,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" ht="30" customHeight="1">
+    <row r="75" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5021,7 +5008,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" ht="30" customHeight="1">
+    <row r="76" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5048,7 +5035,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" ht="30" customHeight="1">
+    <row r="77" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5073,7 +5060,7 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" ht="48" customHeight="1">
+    <row r="78" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5100,7 +5087,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" ht="32" customHeight="1">
+    <row r="79" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5127,7 +5114,7 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" ht="30" customHeight="1">
+    <row r="80" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5154,7 +5141,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="3:29" ht="30" customHeight="1">
+    <row r="81" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5165,6 +5152,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
+      <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
@@ -5181,7 +5169,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="3:29" ht="30" customHeight="1">
+    <row r="82" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5210,7 +5198,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="3:29" ht="30" customHeight="1">
+    <row r="83" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5239,7 +5227,7 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="3:29" ht="30" customHeight="1">
+    <row r="84" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5268,7 +5256,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="3:29" ht="30" customHeight="1">
+    <row r="85" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5297,7 +5285,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="3:29" ht="30" customHeight="1">
+    <row r="86" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5326,7 +5314,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="3:29" ht="30" customHeight="1">
+    <row r="87" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5355,7 +5343,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="3:29" ht="30" customHeight="1">
+    <row r="88" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5384,7 +5372,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="3:29" ht="30" customHeight="1">
+    <row r="89" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5413,7 +5401,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="3:29" ht="30" customHeight="1">
+    <row r="90" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
       <c r="E90" s="3"/>
@@ -5442,7 +5430,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="3:29" ht="30" customHeight="1">
+    <row r="91" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5454,7 +5442,6 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
@@ -5471,9 +5458,8 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="3:29" ht="30" customHeight="1">
+    <row r="92" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I92" s="3"/>
-      <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
@@ -5489,8 +5475,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="3:29" ht="30" customHeight="1">
-      <c r="O93" s="3"/>
+    <row r="93" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
@@ -5506,8 +5491,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="3:29" ht="30" customHeight="1">
-      <c r="O94" s="3"/>
+    <row r="94" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
@@ -5523,39 +5507,39 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="3:29" ht="30" customHeight="1">
+    <row r="95" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="3:29" ht="30" customHeight="1">
+    <row r="96" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" spans="17:17" ht="30" customHeight="1">
+    <row r="97" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" spans="17:17" ht="30" customHeight="1">
+    <row r="98" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" spans="17:17" ht="30" customHeight="1"/>
-    <row r="100" spans="17:17" ht="30" customHeight="1"/>
-    <row r="101" spans="17:17" ht="30" customHeight="1"/>
-    <row r="102" spans="17:17" ht="30" customHeight="1"/>
-    <row r="103" spans="17:17" ht="30" customHeight="1"/>
-    <row r="104" spans="17:17" ht="30" customHeight="1"/>
-    <row r="105" spans="17:17" ht="30" customHeight="1"/>
-    <row r="106" spans="17:17" ht="30" customHeight="1"/>
-    <row r="107" spans="17:17" ht="30" customHeight="1"/>
-    <row r="108" spans="17:17" ht="30" customHeight="1"/>
-    <row r="109" spans="17:17" ht="30" customHeight="1"/>
-    <row r="110" spans="17:17" ht="30" customHeight="1"/>
-    <row r="111" spans="17:17" ht="30" customHeight="1"/>
-    <row r="112" spans="17:17" ht="30" customHeight="1"/>
-    <row r="113" ht="30" customHeight="1"/>
-    <row r="114" ht="30" customHeight="1"/>
-    <row r="115" ht="30" customHeight="1"/>
-    <row r="116" ht="30" customHeight="1"/>
-    <row r="117" ht="30" customHeight="1"/>
-    <row r="118" ht="30" customHeight="1"/>
-    <row r="119" ht="30" customHeight="1"/>
+    <row r="99" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:O1"/>

--- a/Παραδοτέο 4/domain_classes.xlsx
+++ b/Παραδοτέο 4/domain_classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτέο 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FF2320-6120-CA4B-B6F6-A20A8BE740DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1B1976-0FDB-F14A-8081-9D1D08FAAB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7280" yWindow="-26720" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
@@ -1498,7 +1498,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2319,11 +2319,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
   <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L38" zoomScale="164" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="115" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
@@ -2354,7 +2354,7 @@
     <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="70" customHeight="1">
       <c r="A1" s="52" t="s">
         <v>348</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="N1" s="52"/>
       <c r="O1" s="52"/>
     </row>
-    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="30" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" s="33" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="33" customFormat="1" ht="126">
       <c r="A3" s="31" t="s">
         <v>349</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="35" customHeight="1">
       <c r="A4" s="44" t="s">
         <v>61</v>
       </c>
@@ -2540,7 +2540,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="30" customHeight="1">
       <c r="A5" s="43" t="s">
         <v>64</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="30" customHeight="1">
       <c r="A6" s="43" t="s">
         <v>73</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="30" customHeight="1">
       <c r="A7" s="43" t="s">
         <v>75</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="30" customHeight="1">
       <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
@@ -2740,7 +2740,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="30" customHeight="1">
       <c r="A9" s="40"/>
       <c r="B9" s="5" t="s">
         <v>100</v>
@@ -2774,7 +2774,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="32" customHeight="1">
       <c r="A10" s="40"/>
       <c r="B10" s="5" t="s">
         <v>102</v>
@@ -2808,7 +2808,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="32" customHeight="1">
       <c r="A11" s="40"/>
       <c r="B11" s="5" t="s">
         <v>104</v>
@@ -2842,7 +2842,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="30" customHeight="1">
       <c r="A12" s="40"/>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
@@ -2871,7 +2871,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="84" customHeight="1">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2901,7 +2901,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="59" customHeight="1">
       <c r="A14" s="51" t="s">
         <v>343</v>
       </c>
@@ -2933,7 +2933,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="24" t="s">
         <v>3</v>
       </c>
@@ -2983,7 +2983,7 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:29" s="25" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="25" customFormat="1" ht="144">
       <c r="A16" s="26" t="s">
         <v>363</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="30" customHeight="1">
       <c r="A17" s="43" t="s">
         <v>63</v>
       </c>
@@ -3076,7 +3076,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="30" customHeight="1">
       <c r="A18" s="43" t="s">
         <v>68</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="30" customHeight="1">
       <c r="A19" s="43" t="s">
         <v>120</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="30" customHeight="1">
       <c r="A20" s="43" t="s">
         <v>126</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="30" customHeight="1">
       <c r="A21" s="43" t="s">
         <v>263</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="D21" s="43"/>
       <c r="E21" s="8"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="43" t="s">
         <v>123</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3234,7 +3234,7 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="30" customHeight="1">
       <c r="A22" s="43" t="s">
         <v>291</v>
       </c>
@@ -3242,10 +3242,10 @@
       <c r="C22" s="40"/>
       <c r="D22" s="43"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="43" t="s">
         <v>287</v>
       </c>
       <c r="I22" s="8"/>
@@ -3263,7 +3263,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="30" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>62</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="G23" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="43" t="s">
         <v>290</v>
       </c>
       <c r="I23" s="8"/>
@@ -3292,7 +3292,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>107</v>
       </c>
@@ -3317,7 +3317,7 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="30" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>132</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>165</v>
       </c>
@@ -3385,7 +3385,7 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="30" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>299</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="30" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>48</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" s="25" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="96">
       <c r="A29" s="26" t="s">
         <v>376</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>217</v>
       </c>
@@ -3537,7 +3537,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="30" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>220</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>226</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="30" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>232</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>241</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="66" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3711,7 +3711,7 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="68" customHeight="1">
       <c r="A36" s="49" t="s">
         <v>344</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="30" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>0</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" ht="80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="80">
       <c r="A38" s="26" t="s">
         <v>384</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="30" customHeight="1">
       <c r="A39" s="43" t="s">
         <v>60</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="30" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>59</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>128</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>162</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>179</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>180</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>201</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A46" s="43" t="s">
         <v>71</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>230</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A48" s="43" t="s">
         <v>253</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A49" s="43" t="s">
         <v>58</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A50" s="43" t="s">
         <v>281</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>306</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>328</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="40"/>
       <c r="C53" s="8"/>
@@ -4364,7 +4364,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="I54"/>
       <c r="N54" s="5" t="s">
         <v>192</v>
@@ -4373,7 +4373,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="N55" s="5" t="s">
         <v>199</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="45" customHeight="1">
       <c r="A56" s="53" t="s">
         <v>345</v>
       </c>
@@ -4415,7 +4415,7 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="30" customHeight="1">
       <c r="A57" s="18" t="s">
         <v>8</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" ht="80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="80">
       <c r="A58" s="26" t="s">
         <v>397</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="30" customHeight="1">
       <c r="A59" s="43" t="s">
         <v>74</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="30" customHeight="1">
       <c r="A60" s="43" t="s">
         <v>411</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="30" customHeight="1">
       <c r="A61" s="56"/>
       <c r="B61" s="43"/>
       <c r="C61" s="56"/>
@@ -4640,7 +4640,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="30" customHeight="1">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
@@ -4676,7 +4676,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="31" customHeight="1">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
@@ -4695,7 +4695,7 @@
       <c r="O63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="30" customHeight="1">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
@@ -4727,7 +4727,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="30" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4752,7 +4752,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="30" customHeight="1">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4776,7 +4776,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="30" customHeight="1">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4801,7 +4801,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="30" customHeight="1">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4827,7 +4827,7 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="30" customHeight="1">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4853,7 +4853,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="30" customHeight="1">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4879,7 +4879,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="30" customHeight="1">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4905,7 +4905,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="30" customHeight="1">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4931,7 +4931,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="30" customHeight="1">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4956,7 +4956,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="30" customHeight="1">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4981,7 +4981,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="30" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5008,7 +5008,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="30" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5035,7 +5035,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="30" customHeight="1">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5060,7 +5060,7 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="48" customHeight="1">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5087,7 +5087,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="32" customHeight="1">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5114,7 +5114,7 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="30" customHeight="1">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5141,7 +5141,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" ht="30" customHeight="1">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5169,7 +5169,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" ht="30" customHeight="1">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5198,7 +5198,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:29" ht="30" customHeight="1">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5227,7 +5227,7 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" ht="30" customHeight="1">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5256,7 +5256,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:29" ht="30" customHeight="1">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5285,7 +5285,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:29" ht="30" customHeight="1">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5314,7 +5314,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:29" ht="30" customHeight="1">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5343,7 +5343,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:29" ht="30" customHeight="1">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5372,7 +5372,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:29" ht="30" customHeight="1">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5401,7 +5401,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" ht="30" customHeight="1">
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
       <c r="E90" s="3"/>
@@ -5430,7 +5430,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:29" ht="30" customHeight="1">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5458,7 +5458,7 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" ht="30" customHeight="1">
       <c r="I92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
@@ -5475,7 +5475,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:29" ht="30" customHeight="1">
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
@@ -5491,7 +5491,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:29" ht="30" customHeight="1">
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
@@ -5507,39 +5507,39 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" ht="30" customHeight="1">
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:29" ht="30" customHeight="1">
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="17:17" ht="30" customHeight="1">
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="17:17" ht="30" customHeight="1">
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="17:17" ht="30" customHeight="1"/>
+    <row r="100" spans="17:17" ht="30" customHeight="1"/>
+    <row r="101" spans="17:17" ht="30" customHeight="1"/>
+    <row r="102" spans="17:17" ht="30" customHeight="1"/>
+    <row r="103" spans="17:17" ht="30" customHeight="1"/>
+    <row r="104" spans="17:17" ht="30" customHeight="1"/>
+    <row r="105" spans="17:17" ht="30" customHeight="1"/>
+    <row r="106" spans="17:17" ht="30" customHeight="1"/>
+    <row r="107" spans="17:17" ht="30" customHeight="1"/>
+    <row r="108" spans="17:17" ht="30" customHeight="1"/>
+    <row r="109" spans="17:17" ht="30" customHeight="1"/>
+    <row r="110" spans="17:17" ht="30" customHeight="1"/>
+    <row r="111" spans="17:17" ht="30" customHeight="1"/>
+    <row r="112" spans="17:17" ht="30" customHeight="1"/>
+    <row r="113" ht="30" customHeight="1"/>
+    <row r="114" ht="30" customHeight="1"/>
+    <row r="115" ht="30" customHeight="1"/>
+    <row r="116" ht="30" customHeight="1"/>
+    <row r="117" ht="30" customHeight="1"/>
+    <row r="118" ht="30" customHeight="1"/>
+    <row r="119" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:O1"/>

--- a/Παραδοτέο 4/domain_classes.xlsx
+++ b/Παραδοτέο 4/domain_classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτέο 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1B1976-0FDB-F14A-8081-9D1D08FAAB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708A57D-623C-CF45-AAB0-69EADDFB3DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="-26720" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
+    <workbookView xWindow="10120" yWindow="-26280" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain Classes" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="415">
   <si>
     <t>MainScreen</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Listing</t>
   </si>
   <si>
-    <t>RentalInterest</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>ExperienceManager</t>
   </si>
   <si>
-    <t>IdentityVerificationManager</t>
-  </si>
-  <si>
     <t>RentalInterestManager</t>
   </si>
   <si>
@@ -1083,101 +1077,6 @@
   </si>
   <si>
     <t>MANAGER CLASSES</t>
-  </si>
-  <si>
-    <t>private int listingID;
-private List&lt;Listing&gt; activeListings;
-private List&lt;Photo&gt; listingPhotos;
-private User currentUser;
-private RoommatePreferences roommatePreferences;</t>
-  </si>
-  <si>
-    <t>private int currentListingID;
-private Coordinates currentCoordinates;
-private List&lt;Listing&gt; nearbyListings;
-private boolean locationConfirmed;</t>
-  </si>
-  <si>
-    <t>private UserPreferences userPreferences;
-private List&lt;Listing&gt; filteredListings;
-private List&lt;Listing&gt; scoredListings;
-private Listing selectedListing;</t>
-  </si>
-  <si>
-    <t>private Map&lt;Integer, VerificationRequest&gt; verificationRequests; // userID → αίτημα</t>
-  </si>
-  <si>
-    <t>private Listing currentListing;
-private User currentUser;
-private Interest interestObject;
-private EmailTemplate interestEmail;</t>
-  </si>
-  <si>
-    <t>private User currentUser;
-private PaymentSession activePaymentSession;
-private DelayStats userDelayStats;
-private double reliabilityScore;</t>
-  </si>
-  <si>
-    <t>private User currentUser;
-private List&lt;PaymentMethod&gt; userPaymentMethods;
-private PaymentMethod selectedPaymentMethod;</t>
-  </si>
-  <si>
-    <t>private User currentUser;
-private TopUpRequest topUpRequest;
-private boolean topUpFormValid;</t>
-  </si>
-  <si>
-    <t>private List&lt;Listing&gt; ownerListings;
-private List&lt;InterestDeclaration&gt; activeInterests;
-private RentalProcedure currentProcedure;</t>
-  </si>
-  <si>
-    <t>private List&lt;RentalRequest&gt; pendingRequests;
-private DocumentSet uploadedDocuments;
-private boolean termsAccepted;</t>
-  </si>
-  <si>
-    <t>private List&lt;Rental&gt; temporaryRentals;
-private Rental selectedRental;
-private Contract contract;
-private RentalDetails validDetails;
-private Owner currentOwner;</t>
-  </si>
-  <si>
-    <t>private User currentUser;
-private ChatSession currentChatSession;
-private List&lt;ChatMessage&gt; chatHistory;</t>
-  </si>
-  <si>
-    <t>private List&lt;Visit&gt; scheduledVisits;
-private Visit selectedVisit;
-private boolean locationPermissionGranted;
-private boolean visitConfirmed;</t>
-  </si>
-  <si>
-    <t>private Rental rentalToTerminate;
-private TerminationRequest terminationRequest;
-private boolean terminationConfirmed;</t>
-  </si>
-  <si>
-    <t>private int listingID;
-private int ownerID;
-private String status;
-private Preferences preferences;
-private double suitabilityScore;
-private boolean isAvailable;
-private ListingType type;
-private int capacity;
-private Contract contract;</t>
-  </si>
-  <si>
-    <t>private int interestID;
-private int userID;
-private int listingID;
-private String message;
-private LocalDate interestDate;</t>
   </si>
   <si>
     <t>private String content;
@@ -1419,12 +1318,6 @@
 private QueryBuilder queryBuilder;</t>
   </si>
   <si>
-    <t>private List&lt;Experience&gt; allExperiences;
-private List&lt;Experience&gt; validExperiences;
-private Map&lt;Integer, List&lt;User&gt;&gt; listingParticipants;
-private Set&lt;Pair&lt;Integer, Integer&gt;&gt; evaluations;</t>
-  </si>
-  <si>
     <t>Marker</t>
   </si>
   <si>
@@ -1492,13 +1385,40 @@
   </si>
   <si>
     <t>askToApplyPreferences()</t>
+  </si>
+  <si>
+    <t>private ManageDB db
+private CreateListingScreen screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private SearchHousingScreen screen
+</t>
+  </si>
+  <si>
+    <t>private String id;
+private String ownerID;
+private String type;
+private int size;
+private double price;
+private int floor;
+private int rooms;
+private boolean canShare;
+private int maxRoommates;
+private boolean isActive;
+private String address;
+private double latitude;
+private double longitude;
+private double score;</t>
+  </si>
+  <si>
+    <t>Rental Interest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1583,13 +1503,6 @@
       <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1809,7 +1722,7 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1911,19 +1824,10 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1932,49 +1836,52 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2319,18 +2226,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
   <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="115" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="58.1640625" customWidth="1"/>
-    <col min="5" max="5" width="47.1640625" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59" customWidth="1"/>
     <col min="8" max="8" width="49.1640625" customWidth="1"/>
     <col min="9" max="9" width="42.5" customWidth="1"/>
@@ -2354,70 +2261,68 @@
     <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="70" customHeight="1">
-      <c r="A1" s="52" t="s">
-        <v>348</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-    </row>
-    <row r="2" spans="1:29" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+    <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>347</v>
+      <c r="O2" s="36" t="s">
+        <v>345</v>
       </c>
       <c r="P2" s="3"/>
       <c r="R2" s="3"/>
@@ -2433,98 +2338,72 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" s="33" customFormat="1" ht="126">
+    <row r="3" spans="1:29" s="33" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>350</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="B3" s="31"/>
       <c r="C3" s="31" t="s">
-        <v>351</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>353</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="35" customHeight="1">
-      <c r="A4" s="44" t="s">
-        <v>61</v>
+        <v>412</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>109</v>
+        <v>78</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>107</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>175</v>
+        <v>149</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>173</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>282</v>
+        <v>219</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>280</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
@@ -2540,49 +2419,49 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="30" customHeight="1">
-      <c r="A5" s="43" t="s">
-        <v>64</v>
+    <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>112</v>
+        <v>80</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="43" t="s">
-        <v>193</v>
+      <c r="F5" s="39" t="s">
+        <v>191</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="L5" s="43" t="s">
-        <v>289</v>
+        <v>229</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>287</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
@@ -2598,47 +2477,47 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="30" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>73</v>
+    <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>71</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>116</v>
+        <v>86</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>114</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>408</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>294</v>
+        <v>235</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>292</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
@@ -2654,38 +2533,38 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="30" customHeight="1">
-      <c r="A7" s="43" t="s">
-        <v>75</v>
+    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>118</v>
+        <v>91</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="L7" s="56"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="L7" s="44"/>
       <c r="M7" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="3"/>
@@ -2702,27 +2581,27 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="30" customHeight="1">
-      <c r="A8" s="43" t="s">
-        <v>76</v>
+    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>119</v>
+        <v>96</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>117</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="8"/>
@@ -2740,13 +2619,13 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="30" customHeight="1">
-      <c r="A9" s="40"/>
+    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
       <c r="B9" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>121</v>
+        <v>98</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>119</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2754,9 +2633,9 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="8"/>
@@ -2774,13 +2653,13 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="32" customHeight="1">
-      <c r="A10" s="40"/>
+    <row r="10" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
       <c r="B10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>127</v>
+        <v>100</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>125</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2788,9 +2667,9 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="8"/>
@@ -2808,13 +2687,13 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="32" customHeight="1">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
       <c r="B11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>427</v>
+        <v>102</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>408</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2822,9 +2701,9 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="8"/>
@@ -2842,8 +2721,8 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="30" customHeight="1">
-      <c r="A12" s="40"/>
+    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2851,9 +2730,9 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="8"/>
@@ -2871,7 +2750,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="84" customHeight="1">
+    <row r="13" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2901,24 +2780,24 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" ht="59" customHeight="1">
-      <c r="A14" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
+    <row r="14" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
       <c r="P14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2933,409 +2812,407 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="36" t="s">
+      <c r="K15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="M15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="N15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="O15" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:29" s="25" customFormat="1" ht="144">
+    <row r="16" spans="1:29" s="25" customFormat="1" ht="224" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>364</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B16" s="27"/>
       <c r="C16" s="27" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="26" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="26" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="30" customHeight="1">
-      <c r="A17" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>78</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L17" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="M17" s="43" t="s">
-        <v>189</v>
+        <v>165</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>187</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1">
-      <c r="A18" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="43"/>
+    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="39"/>
       <c r="E18" s="8"/>
       <c r="F18" s="10"/>
       <c r="G18" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H18" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>190</v>
+      <c r="L18" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>188</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1">
-      <c r="A19" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="43"/>
+    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="39"/>
       <c r="E19" s="8"/>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="M19" s="43" t="s">
-        <v>191</v>
+        <v>195</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>189</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O19" s="8"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="30" customHeight="1">
-      <c r="A20" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>424</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" s="43"/>
+    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="39"/>
       <c r="E20" s="8"/>
       <c r="F20" s="10"/>
       <c r="G20" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="L20" s="8"/>
-      <c r="M20" s="43"/>
+      <c r="M20" s="39"/>
       <c r="N20" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O20" s="8"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="30" customHeight="1">
-      <c r="A21" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="43"/>
+    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="39"/>
       <c r="E21" s="8"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="43" t="s">
-        <v>123</v>
+      <c r="G21" s="39" t="s">
+        <v>121</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L21" s="8"/>
-      <c r="M21" s="43"/>
+      <c r="M21" s="39"/>
       <c r="N21" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O21" s="8"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="30" customHeight="1">
-      <c r="A22" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="43"/>
+    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="39"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>287</v>
+      <c r="G22" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>285</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L22" s="8"/>
-      <c r="M22" s="43"/>
+      <c r="M22" s="39"/>
       <c r="N22" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O22" s="8"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:29" ht="30" customHeight="1">
+    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="43"/>
+        <v>60</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="39"/>
       <c r="F23" s="10"/>
       <c r="G23" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>290</v>
+        <v>332</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>288</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L23" s="8"/>
-      <c r="M23" s="43"/>
+      <c r="M23" s="39"/>
       <c r="N23" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O23" s="8"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="30" customHeight="1">
+    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="43"/>
+        <v>105</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="39"/>
       <c r="F24" s="10"/>
       <c r="G24" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="43"/>
+      <c r="M24" s="39"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="30" customHeight="1">
+    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="43"/>
+        <v>130</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="39"/>
       <c r="F25" s="10"/>
       <c r="G25" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="43"/>
+      <c r="M25" s="39"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="3"/>
@@ -3351,25 +3228,25 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:29" ht="30" customHeight="1">
+    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="43"/>
+        <v>163</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="39"/>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="43"/>
+      <c r="M26" s="39"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="3"/>
@@ -3385,24 +3262,24 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="30" customHeight="1">
+    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="43"/>
+        <v>297</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="43"/>
+      <c r="M27" s="39"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="3"/>
@@ -3418,33 +3295,33 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:29" ht="30" customHeight="1">
+    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="F28" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3464,62 +3341,62 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" s="25" customFormat="1" ht="96">
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="30" customHeight="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>425</v>
+        <v>231</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>406</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -3537,29 +3414,29 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" ht="30" customHeight="1">
+    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="F31" s="43"/>
+        <v>232</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" s="39"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -3577,27 +3454,27 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" ht="30" customHeight="1">
+    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>421</v>
-      </c>
-      <c r="F32" s="43"/>
+        <v>322</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="F32" s="39"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -3615,25 +3492,25 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" ht="30" customHeight="1">
+    <row r="33" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="F33" s="43"/>
+        <v>323</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="F33" s="39"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -3651,21 +3528,21 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" ht="30" customHeight="1">
+    <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
+        <v>339</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -3683,7 +3560,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" ht="66" customHeight="1">
+    <row r="35" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3711,26 +3588,26 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" ht="68" customHeight="1">
-      <c r="A36" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="O36" s="48"/>
+    <row r="36" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="O36" s="53"/>
       <c r="P36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3745,50 +3622,50 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" ht="30" customHeight="1">
+    <row r="37" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="G37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="J37" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="I37" s="14" t="s">
+      <c r="K37" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="L37" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="M37" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L37" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M37" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N37" s="42" t="s">
+      <c r="N37" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="O37" s="42"/>
+      <c r="O37" s="49"/>
       <c r="P37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -3803,50 +3680,50 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" ht="80">
+    <row r="38" spans="1:29" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D38" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="N38" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="E38" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="J38" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="L38" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="M38" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="N38" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="O38" s="54"/>
+      <c r="O38" s="50"/>
       <c r="P38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -3861,51 +3738,51 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" ht="30" customHeight="1">
-      <c r="A39" s="43" t="s">
+    <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="J39" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="N39" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I39" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="J39" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="K39" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="N39" s="43" t="s">
-        <v>62</v>
-      </c>
       <c r="O39" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P39" s="3"/>
       <c r="R39" s="3"/>
@@ -3921,51 +3798,51 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" ht="30" customHeight="1">
+    <row r="40" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G40" s="46" t="s">
-        <v>428</v>
+        <v>240</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>409</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I40" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="J40" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="K40" s="43" t="s">
-        <v>288</v>
+        <v>210</v>
+      </c>
+      <c r="I40" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="J40" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40" s="39" t="s">
+        <v>286</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="N40" s="43" t="s">
-        <v>70</v>
+        <v>333</v>
+      </c>
+      <c r="N40" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P40" s="3"/>
       <c r="R40" s="3"/>
@@ -3981,423 +3858,423 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>67</v>
+        <v>126</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="G41" s="43" t="s">
-        <v>71</v>
+      <c r="G41" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I41" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="J41" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="K41" s="43" t="s">
-        <v>422</v>
+        <v>217</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="J41" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="K41" s="39" t="s">
+        <v>403</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="N41" s="43" t="s">
-        <v>79</v>
+        <v>334</v>
+      </c>
+      <c r="N41" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>71</v>
+        <v>160</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="43" t="s">
-        <v>429</v>
+      <c r="G42" s="39" t="s">
+        <v>410</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43" t="s">
-        <v>419</v>
-      </c>
-      <c r="K42" s="43" t="s">
-        <v>293</v>
+        <v>220</v>
+      </c>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="K42" s="39" t="s">
+        <v>291</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="N42" s="43" t="s">
-        <v>101</v>
+        <v>340</v>
+      </c>
+      <c r="N42" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>72</v>
+        <v>177</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="43" t="s">
-        <v>115</v>
+      <c r="G43" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43" t="s">
-        <v>423</v>
+        <v>221</v>
+      </c>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39" t="s">
+        <v>404</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="O43" s="43" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>104</v>
+      </c>
+      <c r="O43" s="39" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B44" s="40"/>
+        <v>178</v>
+      </c>
+      <c r="B44" s="37"/>
       <c r="C44" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="43" t="s">
-        <v>117</v>
+      <c r="G44" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43" t="s">
-        <v>420</v>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39" t="s">
+        <v>401</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O44" s="43" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>106</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B45" s="40"/>
+        <v>199</v>
+      </c>
+      <c r="B45" s="37"/>
       <c r="C45" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="43" t="s">
-        <v>122</v>
+      <c r="G45" s="39" t="s">
+        <v>120</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
       <c r="L45" s="5"/>
       <c r="M45" s="10"/>
       <c r="N45" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="O45" s="43" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A46" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="40"/>
+        <v>129</v>
+      </c>
+      <c r="O45" s="39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="37"/>
       <c r="C46" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="43" t="s">
-        <v>125</v>
+      <c r="G46" s="39" t="s">
+        <v>123</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
       <c r="L46" s="5"/>
       <c r="M46" s="10"/>
       <c r="N46" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="O46" s="43" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>131</v>
+      </c>
+      <c r="O46" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B47" s="40"/>
+        <v>228</v>
+      </c>
+      <c r="B47" s="37"/>
       <c r="C47" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="43" t="s">
-        <v>174</v>
+      <c r="G47" s="39" t="s">
+        <v>172</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
       <c r="L47" s="5"/>
       <c r="M47" s="10"/>
       <c r="N47" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="O47" s="43" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A48" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="B48" s="40"/>
+        <v>139</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48" s="37"/>
       <c r="C48" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="43" t="s">
-        <v>177</v>
+      <c r="G48" s="39" t="s">
+        <v>175</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
       <c r="L48" s="5"/>
       <c r="M48" s="10"/>
       <c r="N48" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O48" s="43" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A49" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="40"/>
+        <v>147</v>
+      </c>
+      <c r="O48" s="39" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="37"/>
       <c r="C49" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="43" t="s">
-        <v>178</v>
+      <c r="G49" s="39" t="s">
+        <v>176</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
       <c r="L49" s="5"/>
       <c r="M49" s="10"/>
       <c r="N49" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="O49" s="43" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A50" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="B50" s="40"/>
+        <v>150</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="B50" s="37"/>
       <c r="C50" s="17"/>
       <c r="D50" s="8"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="43" t="s">
-        <v>181</v>
+      <c r="G50" s="39" t="s">
+        <v>179</v>
       </c>
       <c r="H50" s="5"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
       <c r="L50" s="5"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="43" t="s">
-        <v>176</v>
+      <c r="N50" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B51" s="40"/>
+        <v>304</v>
+      </c>
+      <c r="B51" s="37"/>
       <c r="C51" s="17"/>
       <c r="D51" s="8"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="43" t="s">
-        <v>182</v>
+      <c r="G51" s="39" t="s">
+        <v>180</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
       <c r="L51" s="5"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="43" t="s">
-        <v>410</v>
+      <c r="N51" s="39" t="s">
+        <v>391</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B52" s="40"/>
+        <v>326</v>
+      </c>
+      <c r="B52" s="37"/>
       <c r="C52" s="17"/>
       <c r="D52" s="8"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="41"/>
+      <c r="G52" s="38"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
       <c r="L52" s="5"/>
       <c r="M52" s="8"/>
-      <c r="N52" s="43" t="s">
-        <v>187</v>
+      <c r="N52" s="39" t="s">
+        <v>185</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
-      <c r="B53" s="40"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="40"/>
+      <c r="G53" s="37"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
-      <c r="N53" s="43" t="s">
-        <v>188</v>
+      <c r="N53" s="39" t="s">
+        <v>186</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I54"/>
       <c r="N54" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N55" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="45" customHeight="1">
-      <c r="A56" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
       <c r="I56" s="3"/>
       <c r="J56" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L56" s="3"/>
       <c r="P56" s="3"/>
@@ -4415,37 +4292,37 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" ht="30" customHeight="1">
+    <row r="57" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="18" t="s">
-        <v>9</v>
-      </c>
       <c r="C57" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="H57" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L57" s="3"/>
       <c r="P57" s="3"/>
@@ -4463,37 +4340,37 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" ht="80">
+    <row r="58" spans="1:29" ht="80" x14ac:dyDescent="0.2">
       <c r="A58" s="26" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L58" s="3"/>
       <c r="O58" s="3"/>
@@ -4512,37 +4389,37 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:29" ht="30" customHeight="1">
-      <c r="A59" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>111</v>
+    <row r="59" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>109</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G59" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="H59" s="43" t="s">
-        <v>274</v>
+        <v>242</v>
+      </c>
+      <c r="G59" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="H59" s="39" t="s">
+        <v>272</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L59" s="3"/>
       <c r="O59" s="3"/>
@@ -4561,31 +4438,31 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" ht="30" customHeight="1">
-      <c r="A60" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>412</v>
-      </c>
-      <c r="C60" s="43"/>
+    <row r="60" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="C60" s="39"/>
       <c r="D60" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G60" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="H60" s="43" t="s">
-        <v>279</v>
+        <v>243</v>
+      </c>
+      <c r="G60" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="H60" s="39" t="s">
+        <v>277</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="5"/>
       <c r="K60" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
@@ -4602,27 +4479,27 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" ht="30" customHeight="1">
-      <c r="A61" s="56"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="56"/>
+    <row r="61" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="44"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="44"/>
       <c r="D61" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G61" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="H61" s="43" t="s">
-        <v>417</v>
+        <v>244</v>
+      </c>
+      <c r="G61" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="H61" s="39" t="s">
+        <v>398</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="5"/>
       <c r="K61" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -4640,25 +4517,25 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" ht="30" customHeight="1">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
+    <row r="62" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43" t="s">
-        <v>277</v>
+        <v>247</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39" t="s">
+        <v>275</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="5"/>
       <c r="K62" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -4676,40 +4553,40 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" ht="31" customHeight="1">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
+    <row r="63" spans="1:29" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
       <c r="I63" s="3"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="1:29" ht="30" customHeight="1">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
+    <row r="64" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
       <c r="I64" s="3"/>
       <c r="J64" s="8"/>
-      <c r="K64" s="43" t="s">
-        <v>280</v>
+      <c r="K64" s="39" t="s">
+        <v>278</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
@@ -4727,7 +4604,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" ht="30" customHeight="1">
+    <row r="65" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4752,7 +4629,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" ht="30" customHeight="1">
+    <row r="66" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4776,7 +4653,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" ht="30" customHeight="1">
+    <row r="67" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4801,7 +4678,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" ht="30" customHeight="1">
+    <row r="68" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4827,7 +4704,7 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" ht="30" customHeight="1">
+    <row r="69" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4853,7 +4730,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" ht="30" customHeight="1">
+    <row r="70" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4879,7 +4756,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" ht="30" customHeight="1">
+    <row r="71" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4905,7 +4782,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" ht="30" customHeight="1">
+    <row r="72" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4931,7 +4808,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" ht="30" customHeight="1">
+    <row r="73" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4956,7 +4833,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" ht="30" customHeight="1">
+    <row r="74" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4981,7 +4858,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" ht="30" customHeight="1">
+    <row r="75" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5008,7 +4885,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" ht="30" customHeight="1">
+    <row r="76" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5035,7 +4912,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" ht="30" customHeight="1">
+    <row r="77" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5060,7 +4937,7 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" ht="48" customHeight="1">
+    <row r="78" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5087,7 +4964,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" ht="32" customHeight="1">
+    <row r="79" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5114,7 +4991,7 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" ht="30" customHeight="1">
+    <row r="80" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5141,7 +5018,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="3:29" ht="30" customHeight="1">
+    <row r="81" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5169,7 +5046,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="3:29" ht="30" customHeight="1">
+    <row r="82" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5198,7 +5075,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="3:29" ht="30" customHeight="1">
+    <row r="83" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5227,7 +5104,7 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="3:29" ht="30" customHeight="1">
+    <row r="84" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5256,7 +5133,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="3:29" ht="30" customHeight="1">
+    <row r="85" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5285,7 +5162,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="3:29" ht="30" customHeight="1">
+    <row r="86" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5314,7 +5191,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="3:29" ht="30" customHeight="1">
+    <row r="87" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5343,7 +5220,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="3:29" ht="30" customHeight="1">
+    <row r="88" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5372,7 +5249,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="3:29" ht="30" customHeight="1">
+    <row r="89" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5401,7 +5278,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="3:29" ht="30" customHeight="1">
+    <row r="90" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
       <c r="E90" s="3"/>
@@ -5430,7 +5307,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="3:29" ht="30" customHeight="1">
+    <row r="91" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5458,7 +5335,7 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="3:29" ht="30" customHeight="1">
+    <row r="92" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
@@ -5475,7 +5352,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="3:29" ht="30" customHeight="1">
+    <row r="93" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
@@ -5491,7 +5368,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="3:29" ht="30" customHeight="1">
+    <row r="94" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
@@ -5507,39 +5384,39 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="3:29" ht="30" customHeight="1">
+    <row r="95" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="3:29" ht="30" customHeight="1">
+    <row r="96" spans="3:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" spans="17:17" ht="30" customHeight="1">
+    <row r="97" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" spans="17:17" ht="30" customHeight="1">
+    <row r="98" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" spans="17:17" ht="30" customHeight="1"/>
-    <row r="100" spans="17:17" ht="30" customHeight="1"/>
-    <row r="101" spans="17:17" ht="30" customHeight="1"/>
-    <row r="102" spans="17:17" ht="30" customHeight="1"/>
-    <row r="103" spans="17:17" ht="30" customHeight="1"/>
-    <row r="104" spans="17:17" ht="30" customHeight="1"/>
-    <row r="105" spans="17:17" ht="30" customHeight="1"/>
-    <row r="106" spans="17:17" ht="30" customHeight="1"/>
-    <row r="107" spans="17:17" ht="30" customHeight="1"/>
-    <row r="108" spans="17:17" ht="30" customHeight="1"/>
-    <row r="109" spans="17:17" ht="30" customHeight="1"/>
-    <row r="110" spans="17:17" ht="30" customHeight="1"/>
-    <row r="111" spans="17:17" ht="30" customHeight="1"/>
-    <row r="112" spans="17:17" ht="30" customHeight="1"/>
-    <row r="113" ht="30" customHeight="1"/>
-    <row r="114" ht="30" customHeight="1"/>
-    <row r="115" ht="30" customHeight="1"/>
-    <row r="116" ht="30" customHeight="1"/>
-    <row r="117" ht="30" customHeight="1"/>
-    <row r="118" ht="30" customHeight="1"/>
-    <row r="119" ht="30" customHeight="1"/>
+    <row r="99" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="17:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:O1"/>

--- a/Παραδοτέο 4/domain_classes.xlsx
+++ b/Παραδοτέο 4/domain_classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτέο 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lampis/Documents/GitHub/HomeLink/Παραδοτέο 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708A57D-623C-CF45-AAB0-69EADDFB3DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD1476E-BBFF-F24D-A823-6AD899802BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10120" yWindow="-26280" windowWidth="48200" windowHeight="24920" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain Classes" sheetId="2" r:id="rId1"/>
@@ -1853,6 +1853,12 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1875,12 +1881,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2262,26 +2262,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
     </row>
     <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2781,23 +2781,23 @@
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
       <c r="P14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2828,7 +2828,7 @@
       <c r="E15" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="47" t="s">
         <v>38</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -3589,25 +3589,25 @@
       <c r="AC35" s="3"/>
     </row>
     <row r="36" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="53" t="s">
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="55" t="s">
         <v>394</v>
       </c>
-      <c r="O36" s="53"/>
+      <c r="O36" s="55"/>
       <c r="P36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3662,10 +3662,10 @@
       <c r="M37" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N37" s="49" t="s">
+      <c r="N37" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="O37" s="49"/>
+      <c r="O37" s="51"/>
       <c r="P37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -3720,10 +3720,10 @@
       <c r="M38" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="N38" s="50" t="s">
+      <c r="N38" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="O38" s="50"/>
+      <c r="O38" s="52"/>
       <c r="P38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -4259,16 +4259,16 @@
       </c>
     </row>
     <row r="56" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
       <c r="I56" s="3"/>
       <c r="J56" s="19" t="s">
         <v>55</v>
